--- a/Excel/SP500_excel.xlsx
+++ b/Excel/SP500_excel.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Weekly_Difference</t>
+          <t>Weekly_Percentage</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -530,8 +530,10 @@
       <c r="H2" t="n">
         <v>195</v>
       </c>
-      <c r="I2" t="n">
-        <v>-0.2</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
       </c>
       <c r="J2" t="n">
         <v>54117425</v>
@@ -580,8 +582,10 @@
       <c r="H3" t="n">
         <v>372</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.2</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
       </c>
       <c r="J3" t="n">
         <v>20620176</v>
@@ -630,8 +634,10 @@
       <c r="H4" t="n">
         <v>137</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.33</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.49%</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>25357057</v>
@@ -680,8 +686,10 @@
       <c r="H5" t="n">
         <v>135</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.17</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
       </c>
       <c r="J5" t="n">
         <v>32201666</v>
@@ -730,8 +738,10 @@
       <c r="H6" t="n">
         <v>154</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.51</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
       </c>
       <c r="J6" t="n">
         <v>55127409</v>
@@ -780,8 +790,10 @@
       <c r="H7" t="n">
         <v>500</v>
       </c>
-      <c r="I7" t="n">
-        <v>6.77</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
       </c>
       <c r="J7" t="n">
         <v>40862366</v>
@@ -830,8 +842,10 @@
       <c r="H8" t="n">
         <v>344</v>
       </c>
-      <c r="I8" t="n">
-        <v>7.14</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
       </c>
       <c r="J8" t="n">
         <v>18348949</v>
@@ -880,8 +894,10 @@
       <c r="H9" t="n">
         <v>252</v>
       </c>
-      <c r="I9" t="n">
-        <v>-1.7</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-0.67%</t>
+        </is>
       </c>
       <c r="J9" t="n">
         <v>115378203</v>
@@ -930,8 +946,10 @@
       <c r="H10" t="n">
         <v>359</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.23</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
       </c>
       <c r="J10" t="n">
         <v>4106719</v>
@@ -980,14 +998,16 @@
       <c r="H11" t="n">
         <v>579</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.29</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
       </c>
       <c r="J11" t="n">
-        <v>2978831</v>
+        <v>3033126</v>
       </c>
       <c r="K11" t="n">
-        <v>3345527</v>
+        <v>3350052</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1030,8 +1050,10 @@
       <c r="H12" t="n">
         <v>1147</v>
       </c>
-      <c r="I12" t="n">
-        <v>26.2</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
       </c>
       <c r="J12" t="n">
         <v>5423550</v>
@@ -1080,8 +1102,10 @@
       <c r="H13" t="n">
         <v>258</v>
       </c>
-      <c r="I13" t="n">
-        <v>-0.33</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
       </c>
       <c r="J13" t="n">
         <v>5988852</v>
@@ -1130,8 +1154,10 @@
       <c r="H14" t="n">
         <v>526</v>
       </c>
-      <c r="I14" t="n">
-        <v>-2.56</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
       </c>
       <c r="J14" t="n">
         <v>3137854</v>
@@ -1180,8 +1206,10 @@
       <c r="H15" t="n">
         <v>166</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.31</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="J15" t="n">
         <v>8067791</v>
@@ -1230,8 +1258,10 @@
       <c r="H16" t="n">
         <v>154</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.62</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
       </c>
       <c r="J16" t="n">
         <v>8412381</v>
@@ -1280,8 +1310,10 @@
       <c r="H17" t="n">
         <v>101</v>
       </c>
-      <c r="I17" t="n">
-        <v>-0.48</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
       </c>
       <c r="J17" t="n">
         <v>21204810</v>
@@ -1330,14 +1362,16 @@
       <c r="H18" t="n">
         <v>424</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.9</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
       </c>
       <c r="J18" t="n">
-        <v>2620510</v>
+        <v>2686949</v>
       </c>
       <c r="K18" t="n">
-        <v>2951242</v>
+        <v>2956779</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1380,8 +1414,10 @@
       <c r="H19" t="n">
         <v>155</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.23</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
       </c>
       <c r="J19" t="n">
         <v>6868592</v>
@@ -1430,8 +1466,10 @@
       <c r="H20" t="n">
         <v>350</v>
       </c>
-      <c r="I20" t="n">
-        <v>-2.9</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
       </c>
       <c r="J20" t="n">
         <v>4234325</v>
@@ -1480,8 +1518,10 @@
       <c r="H21" t="n">
         <v>146</v>
       </c>
-      <c r="I21" t="n">
-        <v>2</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
       </c>
       <c r="J21" t="n">
         <v>8368540</v>
@@ -1530,8 +1570,10 @@
       <c r="H22" t="n">
         <v>681</v>
       </c>
-      <c r="I22" t="n">
-        <v>16.74</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
       </c>
       <c r="J22" t="n">
         <v>5660417</v>
@@ -1580,8 +1622,10 @@
       <c r="H23" t="n">
         <v>105</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.59</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
       </c>
       <c r="J23" t="n">
         <v>13314285</v>
@@ -1630,14 +1674,16 @@
       <c r="H24" t="n">
         <v>149</v>
       </c>
-      <c r="I24" t="n">
-        <v>-1.15</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
       </c>
       <c r="J24" t="n">
-        <v>11494504</v>
+        <v>11538049</v>
       </c>
       <c r="K24" t="n">
-        <v>13724258</v>
+        <v>13727887</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1680,8 +1726,10 @@
       <c r="H25" t="n">
         <v>599</v>
       </c>
-      <c r="I25" t="n">
-        <v>7.61</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.29%</t>
+        </is>
       </c>
       <c r="J25" t="n">
         <v>5144917</v>
@@ -1730,8 +1778,10 @@
       <c r="H26" t="n">
         <v>153</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.42</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
       </c>
       <c r="J26" t="n">
         <v>5102325</v>
@@ -1780,8 +1830,10 @@
       <c r="H27" t="n">
         <v>106</v>
       </c>
-      <c r="I27" t="n">
-        <v>-0.12</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
       </c>
       <c r="J27" t="n">
         <v>9807016</v>
@@ -1830,8 +1882,10 @@
       <c r="H28" t="n">
         <v>33</v>
       </c>
-      <c r="I28" t="n">
-        <v>-0.28</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
       </c>
       <c r="J28" t="n">
         <v>38803080</v>
@@ -1880,8 +1934,10 @@
       <c r="H29" t="n">
         <v>59</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.22</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
       </c>
       <c r="J29" t="n">
         <v>16622203</v>
@@ -1930,8 +1986,10 @@
       <c r="H30" t="n">
         <v>263</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.77</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1.45%</t>
+        </is>
       </c>
       <c r="J30" t="n">
         <v>7338757</v>
@@ -1980,8 +2038,10 @@
       <c r="H31" t="n">
         <v>168</v>
       </c>
-      <c r="I31" t="n">
-        <v>0.85</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
       </c>
       <c r="J31" t="n">
         <v>5044381</v>
@@ -2030,8 +2090,10 @@
       <c r="H32" t="n">
         <v>138</v>
       </c>
-      <c r="I32" t="n">
-        <v>-0.25</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
       </c>
       <c r="J32" t="n">
         <v>45124224</v>
@@ -2080,8 +2142,10 @@
       <c r="H33" t="n">
         <v>341</v>
       </c>
-      <c r="I33" t="n">
-        <v>-0.8100000000000001</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
       </c>
       <c r="J33" t="n">
         <v>3189239</v>
@@ -2130,8 +2194,10 @@
       <c r="H34" t="n">
         <v>486</v>
       </c>
-      <c r="I34" t="n">
-        <v>9.82</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
       </c>
       <c r="J34" t="n">
         <v>6370840</v>
@@ -2180,8 +2246,10 @@
       <c r="H35" t="n">
         <v>290</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.58</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
       </c>
       <c r="J35" t="n">
         <v>2489480</v>
@@ -2230,8 +2298,10 @@
       <c r="H36" t="n">
         <v>50</v>
       </c>
-      <c r="I36" t="n">
-        <v>0.32</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
       </c>
       <c r="J36" t="n">
         <v>18764314</v>
@@ -2280,8 +2350,10 @@
       <c r="H37" t="n">
         <v>518</v>
       </c>
-      <c r="I37" t="n">
-        <v>-2.51</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
       </c>
       <c r="J37" t="n">
         <v>1578020</v>
@@ -2330,8 +2402,10 @@
       <c r="H38" t="n">
         <v>409</v>
       </c>
-      <c r="I38" t="n">
-        <v>-2.8</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-0.68%</t>
+        </is>
       </c>
       <c r="J38" t="n">
         <v>1697400</v>
@@ -2380,8 +2454,10 @@
       <c r="H39" t="n">
         <v>45</v>
       </c>
-      <c r="I39" t="n">
-        <v>-0.46</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
       </c>
       <c r="J39" t="n">
         <v>26159768</v>
@@ -2430,14 +2506,16 @@
       <c r="H40" t="n">
         <v>108</v>
       </c>
-      <c r="I40" t="n">
-        <v>0.42</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
       </c>
       <c r="J40" t="n">
-        <v>5139859</v>
+        <v>5142821</v>
       </c>
       <c r="K40" t="n">
-        <v>5733463</v>
+        <v>5733710</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2480,8 +2558,10 @@
       <c r="H41" t="n">
         <v>121</v>
       </c>
-      <c r="I41" t="n">
-        <v>-0.27</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-0.22%</t>
+        </is>
       </c>
       <c r="J41" t="n">
         <v>6716958</v>
@@ -2530,8 +2610,10 @@
       <c r="H42" t="n">
         <v>156</v>
       </c>
-      <c r="I42" t="n">
-        <v>-0.17</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
       </c>
       <c r="J42" t="n">
         <v>3282101</v>
@@ -2580,8 +2662,10 @@
       <c r="H43" t="n">
         <v>49</v>
       </c>
-      <c r="I43" t="n">
-        <v>-0.75</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
       </c>
       <c r="J43" t="n">
         <v>20508361</v>
@@ -2630,8 +2714,10 @@
       <c r="H44" t="n">
         <v>44</v>
       </c>
-      <c r="I44" t="n">
-        <v>0.14</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
       </c>
       <c r="J44" t="n">
         <v>17894958</v>
@@ -2680,8 +2766,10 @@
       <c r="H45" t="n">
         <v>618</v>
       </c>
-      <c r="I45" t="n">
-        <v>8.050000000000001</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
       </c>
       <c r="J45" t="n">
         <v>1527802</v>
@@ -2730,8 +2818,10 @@
       <c r="H46" t="n">
         <v>92</v>
       </c>
-      <c r="I46" t="n">
-        <v>0.16</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
       </c>
       <c r="J46" t="n">
         <v>9037666</v>
@@ -2780,8 +2870,10 @@
       <c r="H47" t="n">
         <v>226</v>
       </c>
-      <c r="I47" t="n">
-        <v>-1.64</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-0.72%</t>
+        </is>
       </c>
       <c r="J47" t="n">
         <v>2270371</v>
@@ -2830,8 +2922,10 @@
       <c r="H48" t="n">
         <v>37</v>
       </c>
-      <c r="I48" t="n">
-        <v>-0.05</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
       </c>
       <c r="J48" t="n">
         <v>21713482</v>
@@ -2880,8 +2974,10 @@
       <c r="H49" t="n">
         <v>141</v>
       </c>
-      <c r="I49" t="n">
-        <v>-0.86</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
       </c>
       <c r="J49" t="n">
         <v>7828865</v>
@@ -2930,8 +3026,10 @@
       <c r="H50" t="n">
         <v>260</v>
       </c>
-      <c r="I50" t="n">
-        <v>-0.22</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
       </c>
       <c r="J50" t="n">
         <v>6065966</v>
@@ -2980,8 +3078,10 @@
       <c r="H51" t="n">
         <v>27</v>
       </c>
-      <c r="I51" t="n">
-        <v>0.14</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
       </c>
       <c r="J51" t="n">
         <v>62206249</v>
@@ -3030,14 +3130,16 @@
       <c r="H52" t="n">
         <v>125</v>
       </c>
-      <c r="I52" t="n">
-        <v>-3.54</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-2.73%</t>
+        </is>
       </c>
       <c r="J52" t="n">
-        <v>4010911</v>
+        <v>4589660</v>
       </c>
       <c r="K52" t="n">
-        <v>4522634</v>
+        <v>4570863</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3080,8 +3182,10 @@
       <c r="H53" t="n">
         <v>167</v>
       </c>
-      <c r="I53" t="n">
-        <v>-1.03</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
       </c>
       <c r="J53" t="n">
         <v>4599419</v>
@@ -3130,8 +3234,10 @@
       <c r="H54" t="n">
         <v>90</v>
       </c>
-      <c r="I54" t="n">
-        <v>-0.9</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-0.98%</t>
+        </is>
       </c>
       <c r="J54" t="n">
         <v>8781712</v>
@@ -3180,8 +3286,10 @@
       <c r="H55" t="n">
         <v>162</v>
       </c>
-      <c r="I55" t="n">
-        <v>0.51</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
       </c>
       <c r="J55" t="n">
         <v>3253173</v>
@@ -3230,8 +3338,10 @@
       <c r="H56" t="n">
         <v>275</v>
       </c>
-      <c r="I56" t="n">
-        <v>-1.52</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
       </c>
       <c r="J56" t="n">
         <v>2123142</v>
@@ -3280,8 +3390,10 @@
       <c r="H57" t="n">
         <v>94</v>
       </c>
-      <c r="I57" t="n">
-        <v>-0.04</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
       </c>
       <c r="J57" t="n">
         <v>4425525</v>
@@ -3330,8 +3442,10 @@
       <c r="H58" t="n">
         <v>241</v>
       </c>
-      <c r="I58" t="n">
-        <v>-1.95</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
       </c>
       <c r="J58" t="n">
         <v>2386904</v>
@@ -3380,8 +3494,10 @@
       <c r="H59" t="n">
         <v>285</v>
       </c>
-      <c r="I59" t="n">
-        <v>-1.03</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
       </c>
       <c r="J59" t="n">
         <v>2687630</v>
@@ -3430,8 +3546,10 @@
       <c r="H60" t="n">
         <v>703</v>
       </c>
-      <c r="I60" t="n">
-        <v>1.7</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
       </c>
       <c r="J60" t="n">
         <v>1111148</v>
@@ -3480,8 +3598,10 @@
       <c r="H61" t="n">
         <v>436</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.44</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
       </c>
       <c r="J61" t="n">
         <v>881598</v>
@@ -3530,8 +3650,10 @@
       <c r="H62" t="n">
         <v>161</v>
       </c>
-      <c r="I62" t="n">
-        <v>-1.81</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
       </c>
       <c r="J62" t="n">
         <v>3802342</v>
@@ -3580,8 +3702,10 @@
       <c r="H63" t="n">
         <v>114</v>
       </c>
-      <c r="I63" t="n">
-        <v>-0.93</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
       </c>
       <c r="J63" t="n">
         <v>6852595</v>
@@ -3630,8 +3754,10 @@
       <c r="H64" t="n">
         <v>205</v>
       </c>
-      <c r="I64" t="n">
-        <v>1.09</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
       </c>
       <c r="J64" t="n">
         <v>2916602</v>
@@ -3680,8 +3806,10 @@
       <c r="H65" t="n">
         <v>123</v>
       </c>
-      <c r="I65" t="n">
-        <v>-0.03</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-0.02%</t>
+        </is>
       </c>
       <c r="J65" t="n">
         <v>4103970</v>
@@ -3730,8 +3858,10 @@
       <c r="H66" t="n">
         <v>160</v>
       </c>
-      <c r="I66" t="n">
-        <v>-0.53</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
       </c>
       <c r="J66" t="n">
         <v>4501593</v>
@@ -3780,8 +3910,10 @@
       <c r="H67" t="n">
         <v>182</v>
       </c>
-      <c r="I67" t="n">
-        <v>1.38</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
       </c>
       <c r="J67" t="n">
         <v>2692137</v>
@@ -3830,8 +3962,10 @@
       <c r="H68" t="n">
         <v>224</v>
       </c>
-      <c r="I68" t="n">
-        <v>-2.13</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
       </c>
       <c r="J68" t="n">
         <v>3077380</v>
@@ -3880,8 +4014,10 @@
       <c r="H69" t="n">
         <v>61</v>
       </c>
-      <c r="I69" t="n">
-        <v>-0.28</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
       </c>
       <c r="J69" t="n">
         <v>27406347</v>
@@ -3930,8 +4066,10 @@
       <c r="H70" t="n">
         <v>69</v>
       </c>
-      <c r="I70" t="n">
-        <v>-1.82</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
+        </is>
       </c>
       <c r="J70" t="n">
         <v>11899973</v>
@@ -3980,8 +4118,10 @@
       <c r="H71" t="n">
         <v>61</v>
       </c>
-      <c r="I71" t="n">
-        <v>-0.6</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
       </c>
       <c r="J71" t="n">
         <v>10446767</v>
@@ -4030,8 +4170,10 @@
       <c r="H72" t="n">
         <v>376</v>
       </c>
-      <c r="I72" t="n">
-        <v>-4.86</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-1.27%</t>
+        </is>
       </c>
       <c r="J72" t="n">
         <v>2541974</v>
@@ -4080,8 +4222,10 @@
       <c r="H73" t="n">
         <v>132</v>
       </c>
-      <c r="I73" t="n">
-        <v>-1.9</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-1.41%</t>
+        </is>
       </c>
       <c r="J73" t="n">
         <v>3802975</v>
@@ -4130,8 +4274,10 @@
       <c r="H74" t="n">
         <v>3470</v>
       </c>
-      <c r="I74" t="n">
-        <v>-13.35</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-0.38%</t>
+        </is>
       </c>
       <c r="J74" t="n">
         <v>183966</v>
@@ -4180,8 +4326,10 @@
       <c r="H75" t="n">
         <v>796</v>
       </c>
-      <c r="I75" t="n">
-        <v>-15.56</v>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-1.92%</t>
+        </is>
       </c>
       <c r="J75" t="n">
         <v>912321</v>
@@ -4230,8 +4378,10 @@
       <c r="H76" t="n">
         <v>16</v>
       </c>
-      <c r="I76" t="n">
-        <v>-0.14</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
       </c>
       <c r="J76" t="n">
         <v>34464809</v>
@@ -4280,8 +4430,10 @@
       <c r="H77" t="n">
         <v>80</v>
       </c>
-      <c r="I77" t="n">
-        <v>0.33</v>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
       </c>
       <c r="J77" t="n">
         <v>6961591</v>
@@ -4330,8 +4482,10 @@
       <c r="H78" t="n">
         <v>328</v>
       </c>
-      <c r="I78" t="n">
-        <v>2.69</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
       </c>
       <c r="J78" t="n">
         <v>1854641</v>
@@ -4380,8 +4534,10 @@
       <c r="H79" t="n">
         <v>446</v>
       </c>
-      <c r="I79" t="n">
-        <v>4.2</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
       </c>
       <c r="J79" t="n">
         <v>1191752</v>
@@ -4430,8 +4586,10 @@
       <c r="H80" t="n">
         <v>291</v>
       </c>
-      <c r="I80" t="n">
-        <v>0.08</v>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
       </c>
       <c r="J80" t="n">
         <v>1318947</v>
@@ -4480,8 +4638,10 @@
       <c r="H81" t="n">
         <v>83</v>
       </c>
-      <c r="I81" t="n">
-        <v>0.1</v>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
       </c>
       <c r="J81" t="n">
         <v>6363197</v>
@@ -4530,8 +4690,10 @@
       <c r="H82" t="n">
         <v>469</v>
       </c>
-      <c r="I82" t="n">
-        <v>0.35</v>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
       </c>
       <c r="J82" t="n">
         <v>828888</v>
@@ -4580,8 +4742,10 @@
       <c r="H83" t="n">
         <v>96</v>
       </c>
-      <c r="I83" t="n">
-        <v>-0.68</v>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
       </c>
       <c r="J83" t="n">
         <v>6046728</v>
@@ -4630,8 +4794,10 @@
       <c r="H84" t="n">
         <v>382</v>
       </c>
-      <c r="I84" t="n">
-        <v>-4.07</v>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
       </c>
       <c r="J84" t="n">
         <v>1396062</v>
@@ -4680,8 +4846,10 @@
       <c r="H85" t="n">
         <v>51</v>
       </c>
-      <c r="I85" t="n">
-        <v>0.19</v>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
       </c>
       <c r="J85" t="n">
         <v>14222551</v>
@@ -4730,8 +4898,10 @@
       <c r="H86" t="n">
         <v>404</v>
       </c>
-      <c r="I86" t="n">
-        <v>-7.09</v>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-1.72%</t>
+        </is>
       </c>
       <c r="J86" t="n">
         <v>1852504</v>
@@ -4780,8 +4950,10 @@
       <c r="H87" t="n">
         <v>89</v>
       </c>
-      <c r="I87" t="n">
-        <v>0.08</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
       </c>
       <c r="J87" t="n">
         <v>4332807</v>
@@ -4830,8 +5002,10 @@
       <c r="H88" t="n">
         <v>769</v>
       </c>
-      <c r="I88" t="n">
-        <v>-5.68</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
       </c>
       <c r="J88" t="n">
         <v>883965</v>
@@ -4880,8 +5054,10 @@
       <c r="H89" t="n">
         <v>79</v>
       </c>
-      <c r="I89" t="n">
-        <v>-1.13</v>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
       </c>
       <c r="J89" t="n">
         <v>4850723</v>
@@ -4930,8 +5106,10 @@
       <c r="H90" t="n">
         <v>210</v>
       </c>
-      <c r="I90" t="n">
-        <v>-1.35</v>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
       </c>
       <c r="J90" t="n">
         <v>1783498</v>
@@ -4980,8 +5158,10 @@
       <c r="H91" t="n">
         <v>196</v>
       </c>
-      <c r="I91" t="n">
-        <v>-4.29</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-2.14%</t>
+        </is>
       </c>
       <c r="J91" t="n">
         <v>2601564</v>
@@ -5030,8 +5210,10 @@
       <c r="H92" t="n">
         <v>307</v>
       </c>
-      <c r="I92" t="n">
-        <v>3.33</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
       </c>
       <c r="J92" t="n">
         <v>3322983</v>
@@ -5080,8 +5262,10 @@
       <c r="H93" t="n">
         <v>71</v>
       </c>
-      <c r="I93" t="n">
-        <v>-0.19</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
       </c>
       <c r="J93" t="n">
         <v>4898813</v>
@@ -5130,8 +5314,10 @@
       <c r="H94" t="n">
         <v>234</v>
       </c>
-      <c r="I94" t="n">
-        <v>-1.49</v>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-0.63%</t>
+        </is>
       </c>
       <c r="J94" t="n">
         <v>1483151</v>
@@ -5180,8 +5366,10 @@
       <c r="H95" t="n">
         <v>74</v>
       </c>
-      <c r="I95" t="n">
-        <v>-0.12</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
       </c>
       <c r="J95" t="n">
         <v>7664113</v>
@@ -5230,8 +5418,10 @@
       <c r="H96" t="n">
         <v>49</v>
       </c>
-      <c r="I96" t="n">
-        <v>-0.5</v>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
       </c>
       <c r="J96" t="n">
         <v>17646917</v>
@@ -5280,8 +5470,10 @@
       <c r="H97" t="n">
         <v>237</v>
       </c>
-      <c r="I97" t="n">
-        <v>-0.58</v>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
       </c>
       <c r="J97" t="n">
         <v>1459107</v>
@@ -5330,8 +5522,10 @@
       <c r="H98" t="n">
         <v>147</v>
       </c>
-      <c r="I98" t="n">
-        <v>0.34</v>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
       </c>
       <c r="J98" t="n">
         <v>4120888</v>
@@ -5380,8 +5574,10 @@
       <c r="H99" t="n">
         <v>189</v>
       </c>
-      <c r="I99" t="n">
-        <v>1.39</v>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
       </c>
       <c r="J99" t="n">
         <v>1807430</v>
@@ -5430,8 +5626,10 @@
       <c r="H100" t="n">
         <v>850</v>
       </c>
-      <c r="I100" t="n">
-        <v>-2.91</v>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-0.34%</t>
+        </is>
       </c>
       <c r="J100" t="n">
         <v>623218</v>
@@ -5480,8 +5678,10 @@
       <c r="H101" t="n">
         <v>156</v>
       </c>
-      <c r="I101" t="n">
-        <v>1.14</v>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
       </c>
       <c r="J101" t="n">
         <v>2322726</v>
@@ -5530,8 +5730,10 @@
       <c r="H102" t="n">
         <v>196</v>
       </c>
-      <c r="I102" t="n">
-        <v>-1.09</v>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
       </c>
       <c r="J102" t="n">
         <v>1542993</v>
@@ -5580,8 +5782,10 @@
       <c r="H103" t="n">
         <v>81</v>
       </c>
-      <c r="I103" t="n">
-        <v>-0.03</v>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
       </c>
       <c r="J103" t="n">
         <v>12355844</v>
@@ -5630,8 +5834,10 @@
       <c r="H104" t="n">
         <v>220</v>
       </c>
-      <c r="I104" t="n">
-        <v>0.04</v>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0.02%</t>
+        </is>
       </c>
       <c r="J104" t="n">
         <v>1438047</v>
@@ -5680,8 +5886,10 @@
       <c r="H105" t="n">
         <v>292</v>
       </c>
-      <c r="I105" t="n">
-        <v>0.58</v>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
       </c>
       <c r="J105" t="n">
         <v>1343643</v>
@@ -5730,8 +5938,10 @@
       <c r="H106" t="n">
         <v>559</v>
       </c>
-      <c r="I106" t="n">
-        <v>2.23</v>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
       </c>
       <c r="J106" t="n">
         <v>632665</v>
@@ -5780,8 +5990,10 @@
       <c r="H107" t="n">
         <v>55</v>
       </c>
-      <c r="I107" t="n">
-        <v>-0.29</v>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
       </c>
       <c r="J107" t="n">
         <v>5495754</v>
@@ -5830,8 +6042,10 @@
       <c r="H108" t="n">
         <v>134</v>
       </c>
-      <c r="I108" t="n">
-        <v>0.89</v>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
       </c>
       <c r="J108" t="n">
         <v>3912242</v>
@@ -5880,8 +6094,10 @@
       <c r="H109" t="n">
         <v>308</v>
       </c>
-      <c r="I109" t="n">
-        <v>-0.61</v>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
       </c>
       <c r="J109" t="n">
         <v>1242852</v>
@@ -5930,8 +6146,10 @@
       <c r="H110" t="n">
         <v>576</v>
       </c>
-      <c r="I110" t="n">
-        <v>-14.78</v>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
       </c>
       <c r="J110" t="n">
         <v>928223</v>
@@ -5980,8 +6198,10 @@
       <c r="H111" t="n">
         <v>71</v>
       </c>
-      <c r="I111" t="n">
-        <v>0.75</v>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
       </c>
       <c r="J111" t="n">
         <v>4297155</v>
@@ -6030,8 +6250,10 @@
       <c r="H112" t="n">
         <v>257</v>
       </c>
-      <c r="I112" t="n">
-        <v>-1.45</v>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
       </c>
       <c r="J112" t="n">
         <v>639469</v>
@@ -6080,8 +6302,10 @@
       <c r="H113" t="n">
         <v>211</v>
       </c>
-      <c r="I113" t="n">
-        <v>3.07</v>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
       </c>
       <c r="J113" t="n">
         <v>1542015</v>
@@ -6130,8 +6354,10 @@
       <c r="H114" t="n">
         <v>805</v>
       </c>
-      <c r="I114" t="n">
-        <v>-5.69</v>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
       </c>
       <c r="J114" t="n">
         <v>489099</v>
@@ -6180,14 +6406,16 @@
       <c r="H115" t="n">
         <v>97</v>
       </c>
-      <c r="I115" t="n">
-        <v>-0.03</v>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
       </c>
       <c r="J115" t="n">
-        <v>4160414</v>
+        <v>4277118</v>
       </c>
       <c r="K115" t="n">
-        <v>4369592</v>
+        <v>4379318</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -6230,8 +6458,10 @@
       <c r="H116" t="n">
         <v>52</v>
       </c>
-      <c r="I116" t="n">
-        <v>-0.79</v>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
       </c>
       <c r="J116" t="n">
         <v>9275572</v>
@@ -6280,8 +6510,10 @@
       <c r="H117" t="n">
         <v>42</v>
       </c>
-      <c r="I117" t="n">
-        <v>0.15</v>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
       </c>
       <c r="J117" t="n">
         <v>9059004</v>
@@ -6330,8 +6562,10 @@
       <c r="H118" t="n">
         <v>273</v>
       </c>
-      <c r="I118" t="n">
-        <v>1.59</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
       </c>
       <c r="J118" t="n">
         <v>1205529</v>
@@ -6380,8 +6614,10 @@
       <c r="H119" t="n">
         <v>238</v>
       </c>
-      <c r="I119" t="n">
-        <v>2.28</v>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
       </c>
       <c r="J119" t="n">
         <v>1779408</v>
@@ -6430,8 +6666,10 @@
       <c r="H120" t="n">
         <v>390</v>
       </c>
-      <c r="I120" t="n">
-        <v>1.24</v>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
       </c>
       <c r="J120" t="n">
         <v>665285</v>
@@ -6480,8 +6718,10 @@
       <c r="H121" t="n">
         <v>177</v>
       </c>
-      <c r="I121" t="n">
-        <v>2.16</v>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
       </c>
       <c r="J121" t="n">
         <v>1697501</v>
@@ -6530,8 +6770,10 @@
       <c r="H122" t="n">
         <v>267</v>
       </c>
-      <c r="I122" t="n">
-        <v>-4.26</v>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
       </c>
       <c r="J122" t="n">
         <v>876957</v>
@@ -6580,8 +6822,10 @@
       <c r="H123" t="n">
         <v>121</v>
       </c>
-      <c r="I123" t="n">
-        <v>-1.13</v>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
       </c>
       <c r="J123" t="n">
         <v>2846222</v>
@@ -6630,8 +6874,10 @@
       <c r="H124" t="n">
         <v>281</v>
       </c>
-      <c r="I124" t="n">
-        <v>-1.33</v>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
       </c>
       <c r="J124" t="n">
         <v>2418858</v>
@@ -6680,8 +6926,10 @@
       <c r="H125" t="n">
         <v>123</v>
       </c>
-      <c r="I125" t="n">
-        <v>0.37</v>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
       </c>
       <c r="J125" t="n">
         <v>1998388</v>
@@ -6730,8 +6978,10 @@
       <c r="H126" t="n">
         <v>465</v>
       </c>
-      <c r="I126" t="n">
-        <v>3.15</v>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
       </c>
       <c r="J126" t="n">
         <v>756900</v>
@@ -6780,8 +7030,10 @@
       <c r="H127" t="n">
         <v>237</v>
       </c>
-      <c r="I127" t="n">
-        <v>-0.6</v>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
       </c>
       <c r="J127" t="n">
         <v>1656397</v>
@@ -6830,8 +7082,10 @@
       <c r="H128" t="n">
         <v>252</v>
       </c>
-      <c r="I128" t="n">
-        <v>0.21</v>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
       </c>
       <c r="J128" t="n">
         <v>704402</v>
@@ -6880,8 +7134,10 @@
       <c r="H129" t="n">
         <v>44</v>
       </c>
-      <c r="I129" t="n">
-        <v>-1.25</v>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
       </c>
       <c r="J129" t="n">
         <v>9664504</v>
@@ -6930,8 +7186,10 @@
       <c r="H130" t="n">
         <v>34</v>
       </c>
-      <c r="I130" t="n">
-        <v>0.15</v>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
       </c>
       <c r="J130" t="n">
         <v>10947463</v>
@@ -6980,8 +7238,10 @@
       <c r="H131" t="n">
         <v>61</v>
       </c>
-      <c r="I131" t="n">
-        <v>0.05</v>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
       </c>
       <c r="J131" t="n">
         <v>13333607</v>
@@ -7030,8 +7290,10 @@
       <c r="H132" t="n">
         <v>222</v>
       </c>
-      <c r="I132" t="n">
-        <v>0.64</v>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
       </c>
       <c r="J132" t="n">
         <v>1411722</v>
@@ -7080,8 +7342,10 @@
       <c r="H133" t="n">
         <v>78</v>
       </c>
-      <c r="I133" t="n">
-        <v>0.53</v>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
       </c>
       <c r="J133" t="n">
         <v>4100738</v>
@@ -7130,8 +7394,10 @@
       <c r="H134" t="n">
         <v>137</v>
       </c>
-      <c r="I134" t="n">
-        <v>-1.28</v>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
       </c>
       <c r="J134" t="n">
         <v>2945375</v>
@@ -7180,8 +7446,10 @@
       <c r="H135" t="n">
         <v>501</v>
       </c>
-      <c r="I135" t="n">
-        <v>11.62</v>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
       </c>
       <c r="J135" t="n">
         <v>1226836</v>
@@ -7230,8 +7498,10 @@
       <c r="H136" t="n">
         <v>2297</v>
       </c>
-      <c r="I136" t="n">
-        <v>17</v>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
       </c>
       <c r="J136" t="n">
         <v>182105</v>
@@ -7280,8 +7550,10 @@
       <c r="H137" t="n">
         <v>314</v>
       </c>
-      <c r="I137" t="n">
-        <v>1.37</v>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
       </c>
       <c r="J137" t="n">
         <v>872036</v>
@@ -7330,8 +7602,10 @@
       <c r="H138" t="n">
         <v>151</v>
       </c>
-      <c r="I138" t="n">
-        <v>-1.4</v>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
       </c>
       <c r="J138" t="n">
         <v>2647882</v>
@@ -7380,8 +7654,10 @@
       <c r="H139" t="n">
         <v>271</v>
       </c>
-      <c r="I139" t="n">
-        <v>-2.38</v>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
       </c>
       <c r="J139" t="n">
         <v>1287614</v>
@@ -7430,8 +7706,10 @@
       <c r="H140" t="n">
         <v>447</v>
       </c>
-      <c r="I140" t="n">
-        <v>4.07</v>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
       </c>
       <c r="J140" t="n">
         <v>790612</v>
@@ -7480,8 +7758,10 @@
       <c r="H141" t="n">
         <v>41</v>
       </c>
-      <c r="I141" t="n">
-        <v>-0.22</v>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
       </c>
       <c r="J141" t="n">
         <v>12191390</v>
@@ -7530,8 +7810,10 @@
       <c r="H142" t="n">
         <v>229</v>
       </c>
-      <c r="I142" t="n">
-        <v>-3.87</v>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
       </c>
       <c r="J142" t="n">
         <v>2531784</v>
@@ -7580,8 +7862,10 @@
       <c r="H143" t="n">
         <v>98</v>
       </c>
-      <c r="I143" t="n">
-        <v>-0.35</v>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
       </c>
       <c r="J143" t="n">
         <v>2467898</v>
@@ -7630,8 +7914,10 @@
       <c r="H144" t="n">
         <v>105</v>
       </c>
-      <c r="I144" t="n">
-        <v>-1.13</v>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
       </c>
       <c r="J144" t="n">
         <v>3000625</v>
@@ -7680,8 +7966,10 @@
       <c r="H145" t="n">
         <v>453</v>
       </c>
-      <c r="I145" t="n">
-        <v>-2.01</v>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
       </c>
       <c r="J145" t="n">
         <v>507348</v>
@@ -7730,8 +8018,10 @@
       <c r="H146" t="n">
         <v>542</v>
       </c>
-      <c r="I146" t="n">
-        <v>-1.47</v>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
       </c>
       <c r="J146" t="n">
         <v>645645</v>
@@ -7780,8 +8070,10 @@
       <c r="H147" t="n">
         <v>131</v>
       </c>
-      <c r="I147" t="n">
-        <v>-0.01</v>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>-0.01%</t>
+        </is>
       </c>
       <c r="J147" t="n">
         <v>2961256</v>
@@ -7830,8 +8122,10 @@
       <c r="H148" t="n">
         <v>151</v>
       </c>
-      <c r="I148" t="n">
-        <v>0.88</v>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
       </c>
       <c r="J148" t="n">
         <v>2885075</v>
@@ -7880,8 +8174,10 @@
       <c r="H149" t="n">
         <v>55</v>
       </c>
-      <c r="I149" t="n">
-        <v>-0.17</v>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
       </c>
       <c r="J149" t="n">
         <v>4181903</v>
@@ -7930,8 +8226,10 @@
       <c r="H150" t="n">
         <v>560</v>
       </c>
-      <c r="I150" t="n">
-        <v>-5.33</v>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
       </c>
       <c r="J150" t="n">
         <v>348969</v>
@@ -7980,8 +8278,10 @@
       <c r="H151" t="n">
         <v>960</v>
       </c>
-      <c r="I151" t="n">
-        <v>7.15</v>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
       </c>
       <c r="J151" t="n">
         <v>358396</v>
@@ -8030,8 +8330,10 @@
       <c r="H152" t="n">
         <v>383</v>
       </c>
-      <c r="I152" t="n">
-        <v>2.31</v>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
       </c>
       <c r="J152" t="n">
         <v>908902</v>
@@ -8080,8 +8382,10 @@
       <c r="H153" t="n">
         <v>460</v>
       </c>
-      <c r="I153" t="n">
-        <v>-1.11</v>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
       </c>
       <c r="J153" t="n">
         <v>1578160</v>
@@ -8130,8 +8434,10 @@
       <c r="H154" t="n">
         <v>196</v>
       </c>
-      <c r="I154" t="n">
-        <v>0.55</v>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
       </c>
       <c r="J154" t="n">
         <v>712412</v>
@@ -8180,8 +8486,10 @@
       <c r="H155" t="n">
         <v>96</v>
       </c>
-      <c r="I155" t="n">
-        <v>0.27</v>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
       </c>
       <c r="J155" t="n">
         <v>1830275</v>
@@ -8230,8 +8538,10 @@
       <c r="H156" t="n">
         <v>989</v>
       </c>
-      <c r="I156" t="n">
-        <v>-1.3</v>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
       </c>
       <c r="J156" t="n">
         <v>131791</v>
@@ -8280,8 +8590,10 @@
       <c r="H157" t="n">
         <v>240</v>
       </c>
-      <c r="I157" t="n">
-        <v>0.12</v>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
       </c>
       <c r="J157" t="n">
         <v>730164</v>
@@ -8330,8 +8642,10 @@
       <c r="H158" t="n">
         <v>143</v>
       </c>
-      <c r="I158" t="n">
-        <v>-1.64</v>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
+        </is>
       </c>
       <c r="J158" t="n">
         <v>1408493</v>
@@ -8380,8 +8694,10 @@
       <c r="H159" t="n">
         <v>228</v>
       </c>
-      <c r="I159" t="n">
-        <v>-1.39</v>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
       </c>
       <c r="J159" t="n">
         <v>1755861</v>
@@ -8430,8 +8746,10 @@
       <c r="H160" t="n">
         <v>232</v>
       </c>
-      <c r="I160" t="n">
-        <v>-1.37</v>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
       </c>
       <c r="J160" t="n">
         <v>805943</v>
@@ -8480,8 +8798,10 @@
       <c r="H161" t="n">
         <v>314</v>
       </c>
-      <c r="I161" t="n">
-        <v>3.32</v>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
       </c>
       <c r="J161" t="n">
         <v>830500</v>
@@ -8530,8 +8850,10 @@
       <c r="H162" t="n">
         <v>58</v>
       </c>
-      <c r="I162" t="n">
-        <v>-0.72</v>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
       </c>
       <c r="J162" t="n">
         <v>9097181</v>
@@ -8580,8 +8902,10 @@
       <c r="H163" t="n">
         <v>163</v>
       </c>
-      <c r="I163" t="n">
-        <v>0.7</v>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
       </c>
       <c r="J163" t="n">
         <v>1063291</v>
@@ -8630,8 +8954,10 @@
       <c r="H164" t="n">
         <v>239</v>
       </c>
-      <c r="I164" t="n">
-        <v>-1.65</v>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>-0.69%</t>
+        </is>
       </c>
       <c r="J164" t="n">
         <v>1752192</v>
@@ -8680,8 +9006,10 @@
       <c r="H165" t="n">
         <v>142</v>
       </c>
-      <c r="I165" t="n">
-        <v>-1.12</v>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
       </c>
       <c r="J165" t="n">
         <v>2203433</v>
@@ -8730,8 +9058,10 @@
       <c r="H166" t="n">
         <v>289</v>
       </c>
-      <c r="I166" t="n">
-        <v>-1.11</v>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>-0.38%</t>
+        </is>
       </c>
       <c r="J166" t="n">
         <v>670846</v>
@@ -8780,8 +9110,10 @@
       <c r="H167" t="n">
         <v>95</v>
       </c>
-      <c r="I167" t="n">
-        <v>-0.4</v>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
       </c>
       <c r="J167" t="n">
         <v>2015936</v>
@@ -8830,8 +9162,10 @@
       <c r="H168" t="n">
         <v>90</v>
       </c>
-      <c r="I168" t="n">
-        <v>-2.33</v>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>-2.52%</t>
+        </is>
       </c>
       <c r="J168" t="n">
         <v>2829132</v>
@@ -8880,8 +9214,10 @@
       <c r="H169" t="n">
         <v>148</v>
       </c>
-      <c r="I169" t="n">
-        <v>-1.43</v>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
       </c>
       <c r="J169" t="n">
         <v>3911951</v>
@@ -8930,8 +9266,10 @@
       <c r="H170" t="n">
         <v>129</v>
       </c>
-      <c r="I170" t="n">
-        <v>-0.1</v>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
       </c>
       <c r="J170" t="n">
         <v>2573649</v>
@@ -8980,8 +9318,10 @@
       <c r="H171" t="n">
         <v>91</v>
       </c>
-      <c r="I171" t="n">
-        <v>-1.29</v>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>-1.39%</t>
+        </is>
       </c>
       <c r="J171" t="n">
         <v>3971434</v>
@@ -9030,8 +9370,10 @@
       <c r="H172" t="n">
         <v>227</v>
       </c>
-      <c r="I172" t="n">
-        <v>2.96</v>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
       </c>
       <c r="J172" t="n">
         <v>1459939</v>
@@ -9080,8 +9422,10 @@
       <c r="H173" t="n">
         <v>112</v>
       </c>
-      <c r="I173" t="n">
-        <v>-0.39</v>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
       </c>
       <c r="J173" t="n">
         <v>4543157</v>
@@ -9130,8 +9474,10 @@
       <c r="H174" t="n">
         <v>35</v>
       </c>
-      <c r="I174" t="n">
-        <v>-0.34</v>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
       </c>
       <c r="J174" t="n">
         <v>17829849</v>
@@ -9180,8 +9526,10 @@
       <c r="H175" t="n">
         <v>36</v>
       </c>
-      <c r="I175" t="n">
-        <v>-0.37</v>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
       </c>
       <c r="J175" t="n">
         <v>8872883</v>
@@ -9230,8 +9578,10 @@
       <c r="H176" t="n">
         <v>65</v>
       </c>
-      <c r="I176" t="n">
-        <v>-1.48</v>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>-2.22%</t>
+        </is>
       </c>
       <c r="J176" t="n">
         <v>5783169</v>
@@ -9280,8 +9630,10 @@
       <c r="H177" t="n">
         <v>11</v>
       </c>
-      <c r="I177" t="n">
-        <v>-0.06</v>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
       </c>
       <c r="J177" t="n">
         <v>42217599</v>
@@ -9330,8 +9682,10 @@
       <c r="H178" t="n">
         <v>56</v>
       </c>
-      <c r="I178" t="n">
-        <v>-0.68</v>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
       </c>
       <c r="J178" t="n">
         <v>3537029</v>
@@ -9380,8 +9734,10 @@
       <c r="H179" t="n">
         <v>81</v>
       </c>
-      <c r="I179" t="n">
-        <v>0.33</v>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
       </c>
       <c r="J179" t="n">
         <v>2175116</v>
@@ -9430,8 +9786,10 @@
       <c r="H180" t="n">
         <v>41</v>
       </c>
-      <c r="I180" t="n">
-        <v>0.05</v>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
       </c>
       <c r="J180" t="n">
         <v>12933209</v>
@@ -9480,8 +9838,10 @@
       <c r="H181" t="n">
         <v>123</v>
       </c>
-      <c r="I181" t="n">
-        <v>1.5</v>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
       </c>
       <c r="J181" t="n">
         <v>2206991</v>
@@ -9530,8 +9890,10 @@
       <c r="H182" t="n">
         <v>74</v>
       </c>
-      <c r="I182" t="n">
-        <v>-0.74</v>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>-0.98%</t>
+        </is>
       </c>
       <c r="J182" t="n">
         <v>2552624</v>
@@ -9580,8 +9942,10 @@
       <c r="H183" t="n">
         <v>48</v>
       </c>
-      <c r="I183" t="n">
-        <v>-0.64</v>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
       </c>
       <c r="J183" t="n">
         <v>4103840</v>
@@ -9630,8 +9994,10 @@
       <c r="H184" t="n">
         <v>66</v>
       </c>
-      <c r="I184" t="n">
-        <v>0.04</v>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
       </c>
       <c r="J184" t="n">
         <v>2561831</v>
@@ -9680,8 +10046,10 @@
       <c r="H185" t="n">
         <v>127</v>
       </c>
-      <c r="I185" t="n">
-        <v>-0.09</v>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>-0.07%</t>
+        </is>
       </c>
       <c r="J185" t="n">
         <v>1686028</v>
@@ -9730,8 +10098,10 @@
       <c r="H186" t="n">
         <v>178</v>
       </c>
-      <c r="I186" t="n">
-        <v>0.98</v>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
       </c>
       <c r="J186" t="n">
         <v>1380614</v>
@@ -9780,8 +10150,10 @@
       <c r="H187" t="n">
         <v>2637</v>
       </c>
-      <c r="I187" t="n">
-        <v>-0.64</v>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>-0.02%</t>
+        </is>
       </c>
       <c r="J187" t="n">
         <v>101075</v>
@@ -9830,8 +10202,10 @@
       <c r="H188" t="n">
         <v>135</v>
       </c>
-      <c r="I188" t="n">
-        <v>-0.13</v>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
       </c>
       <c r="J188" t="n">
         <v>1645665</v>
@@ -9880,8 +10254,10 @@
       <c r="H189" t="n">
         <v>74</v>
       </c>
-      <c r="I189" t="n">
-        <v>-1.97</v>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
+        </is>
       </c>
       <c r="J189" t="n">
         <v>4870993</v>
@@ -9930,8 +10306,10 @@
       <c r="H190" t="n">
         <v>32</v>
       </c>
-      <c r="I190" t="n">
-        <v>0.28</v>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
       </c>
       <c r="J190" t="n">
         <v>6357201</v>
@@ -9980,8 +10358,10 @@
       <c r="H191" t="n">
         <v>36</v>
       </c>
-      <c r="I191" t="n">
-        <v>0.03</v>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
       </c>
       <c r="J191" t="n">
         <v>6438759</v>
@@ -10030,8 +10410,10 @@
       <c r="H192" t="n">
         <v>131</v>
       </c>
-      <c r="I192" t="n">
-        <v>1.4</v>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
       </c>
       <c r="J192" t="n">
         <v>3484119</v>
@@ -10080,8 +10462,10 @@
       <c r="H193" t="n">
         <v>539</v>
       </c>
-      <c r="I193" t="n">
-        <v>-1.52</v>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
       </c>
       <c r="J193" t="n">
         <v>386969</v>
@@ -10130,8 +10514,10 @@
       <c r="H194" t="n">
         <v>145</v>
       </c>
-      <c r="I194" t="n">
-        <v>-1.42</v>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
       </c>
       <c r="J194" t="n">
         <v>2822251</v>
@@ -10180,8 +10566,10 @@
       <c r="H195" t="n">
         <v>17</v>
       </c>
-      <c r="I195" t="n">
-        <v>-0.25</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>-1.42%</t>
+        </is>
       </c>
       <c r="J195" t="n">
         <v>29643685</v>
@@ -10230,8 +10618,10 @@
       <c r="H196" t="n">
         <v>238</v>
       </c>
-      <c r="I196" t="n">
-        <v>1.26</v>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
       </c>
       <c r="J196" t="n">
         <v>1223172</v>
@@ -10280,8 +10670,10 @@
       <c r="H197" t="n">
         <v>140</v>
       </c>
-      <c r="I197" t="n">
-        <v>-0.89</v>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>-0.63%</t>
+        </is>
       </c>
       <c r="J197" t="n">
         <v>1217651</v>
@@ -10330,8 +10722,10 @@
       <c r="H198" t="n">
         <v>56</v>
       </c>
-      <c r="I198" t="n">
-        <v>-1.6</v>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
       </c>
       <c r="J198" t="n">
         <v>11556125</v>
@@ -10380,8 +10774,10 @@
       <c r="H199" t="n">
         <v>81</v>
       </c>
-      <c r="I199" t="n">
-        <v>-0.51</v>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>-0.62%</t>
+        </is>
       </c>
       <c r="J199" t="n">
         <v>3131044</v>
@@ -10430,8 +10826,10 @@
       <c r="H200" t="n">
         <v>393</v>
       </c>
-      <c r="I200" t="n">
-        <v>-3.99</v>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
       </c>
       <c r="J200" t="n">
         <v>520185</v>
@@ -10480,8 +10878,10 @@
       <c r="H201" t="n">
         <v>174</v>
       </c>
-      <c r="I201" t="n">
-        <v>-1.5</v>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
       </c>
       <c r="J201" t="n">
         <v>1940343</v>
@@ -10530,8 +10930,10 @@
       <c r="H202" t="n">
         <v>34</v>
       </c>
-      <c r="I202" t="n">
-        <v>-0.33</v>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
       </c>
       <c r="J202" t="n">
         <v>5931157</v>
@@ -10580,8 +10982,10 @@
       <c r="H203" t="n">
         <v>532</v>
       </c>
-      <c r="I203" t="n">
-        <v>1.04</v>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
       </c>
       <c r="J203" t="n">
         <v>553674</v>
@@ -10630,8 +11034,10 @@
       <c r="H204" t="n">
         <v>183</v>
       </c>
-      <c r="I204" t="n">
-        <v>-0.21</v>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
       </c>
       <c r="J204" t="n">
         <v>1402383</v>
@@ -10680,8 +11086,10 @@
       <c r="H205" t="n">
         <v>147</v>
       </c>
-      <c r="I205" t="n">
-        <v>-1.93</v>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
       </c>
       <c r="J205" t="n">
         <v>2643737</v>
@@ -10730,8 +11138,10 @@
       <c r="H206" t="n">
         <v>833</v>
       </c>
-      <c r="I206" t="n">
-        <v>5.15</v>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
       </c>
       <c r="J206" t="n">
         <v>194946</v>
@@ -10780,8 +11190,10 @@
       <c r="H207" t="n">
         <v>225</v>
       </c>
-      <c r="I207" t="n">
-        <v>-1.73</v>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
       </c>
       <c r="J207" t="n">
         <v>893229</v>
@@ -10830,8 +11242,10 @@
       <c r="H208" t="n">
         <v>132</v>
       </c>
-      <c r="I208" t="n">
-        <v>-0.18</v>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
       </c>
       <c r="J208" t="n">
         <v>1584979</v>
@@ -10880,8 +11294,10 @@
       <c r="H209" t="n">
         <v>56</v>
       </c>
-      <c r="I209" t="n">
-        <v>-0.89</v>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>-1.55%</t>
+        </is>
       </c>
       <c r="J209" t="n">
         <v>8487846</v>
@@ -10930,8 +11346,10 @@
       <c r="H210" t="n">
         <v>120</v>
       </c>
-      <c r="I210" t="n">
-        <v>0.8100000000000001</v>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
       </c>
       <c r="J210" t="n">
         <v>1442467</v>
@@ -10980,8 +11398,10 @@
       <c r="H211" t="n">
         <v>48</v>
       </c>
-      <c r="I211" t="n">
-        <v>-0.54</v>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
       </c>
       <c r="J211" t="n">
         <v>7358019</v>
@@ -11030,8 +11450,10 @@
       <c r="H212" t="n">
         <v>21</v>
       </c>
-      <c r="I212" t="n">
-        <v>-0.09</v>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
       </c>
       <c r="J212" t="n">
         <v>15619204</v>
@@ -11080,8 +11502,10 @@
       <c r="H213" t="n">
         <v>200</v>
       </c>
-      <c r="I213" t="n">
-        <v>-1.69</v>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
       </c>
       <c r="J213" t="n">
         <v>1029754</v>
@@ -11130,8 +11554,10 @@
       <c r="H214" t="n">
         <v>137</v>
       </c>
-      <c r="I214" t="n">
-        <v>-0.06</v>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
       </c>
       <c r="J214" t="n">
         <v>1476207</v>
@@ -11180,8 +11606,10 @@
       <c r="H215" t="n">
         <v>74</v>
       </c>
-      <c r="I215" t="n">
-        <v>0.3</v>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
       </c>
       <c r="J215" t="n">
         <v>3478606</v>
@@ -11230,8 +11658,10 @@
       <c r="H216" t="n">
         <v>209</v>
       </c>
-      <c r="I216" t="n">
-        <v>1.53</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
       </c>
       <c r="J216" t="n">
         <v>1963838</v>
@@ -11280,8 +11710,10 @@
       <c r="H217" t="n">
         <v>68</v>
       </c>
-      <c r="I217" t="n">
-        <v>-0.58</v>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
       </c>
       <c r="J217" t="n">
         <v>4741475</v>
@@ -11330,8 +11762,10 @@
       <c r="H218" t="n">
         <v>51</v>
       </c>
-      <c r="I218" t="n">
-        <v>-0.62</v>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
       </c>
       <c r="J218" t="n">
         <v>4743783</v>
@@ -11380,8 +11814,10 @@
       <c r="H219" t="n">
         <v>17</v>
       </c>
-      <c r="I219" t="n">
-        <v>-0.18</v>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
       </c>
       <c r="J219" t="n">
         <v>13152201</v>
@@ -11430,8 +11866,10 @@
       <c r="H220" t="n">
         <v>72</v>
       </c>
-      <c r="I220" t="n">
-        <v>-3.06</v>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>-4.06%</t>
+        </is>
       </c>
       <c r="J220" t="n">
         <v>6455080</v>
@@ -11480,8 +11918,10 @@
       <c r="H221" t="n">
         <v>66</v>
       </c>
-      <c r="I221" t="n">
-        <v>1.02</v>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
       </c>
       <c r="J221" t="n">
         <v>5421088</v>
@@ -11530,8 +11970,10 @@
       <c r="H222" t="n">
         <v>568</v>
       </c>
-      <c r="I222" t="n">
-        <v>-8.880000000000001</v>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>-1.54%</t>
+        </is>
       </c>
       <c r="J222" t="n">
         <v>845741</v>
@@ -11580,8 +12022,10 @@
       <c r="H223" t="n">
         <v>119</v>
       </c>
-      <c r="I223" t="n">
-        <v>-0.21</v>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
       </c>
       <c r="J223" t="n">
         <v>1986857</v>
@@ -11630,8 +12074,10 @@
       <c r="H224" t="n">
         <v>376</v>
       </c>
-      <c r="I224" t="n">
-        <v>-1.52</v>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
       </c>
       <c r="J224" t="n">
         <v>373680</v>
@@ -11680,8 +12126,10 @@
       <c r="H225" t="n">
         <v>75</v>
       </c>
-      <c r="I225" t="n">
-        <v>-0.35</v>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>-0.46%</t>
+        </is>
       </c>
       <c r="J225" t="n">
         <v>5468587</v>
@@ -11730,8 +12178,10 @@
       <c r="H226" t="n">
         <v>54</v>
       </c>
-      <c r="I226" t="n">
-        <v>-0.5</v>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>-0.91%</t>
+        </is>
       </c>
       <c r="J226" t="n">
         <v>3173436</v>
@@ -11780,8 +12230,10 @@
       <c r="H227" t="n">
         <v>163</v>
       </c>
-      <c r="I227" t="n">
-        <v>-0.15</v>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>-0.09%</t>
+        </is>
       </c>
       <c r="J227" t="n">
         <v>532345</v>
@@ -11830,8 +12282,10 @@
       <c r="H228" t="n">
         <v>182</v>
       </c>
-      <c r="I228" t="n">
-        <v>-0.13</v>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>-0.07%</t>
+        </is>
       </c>
       <c r="J228" t="n">
         <v>1729413</v>
@@ -11880,8 +12334,10 @@
       <c r="H229" t="n">
         <v>103</v>
       </c>
-      <c r="I229" t="n">
-        <v>-0.86</v>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
       </c>
       <c r="J229" t="n">
         <v>2926731</v>
@@ -11930,8 +12386,10 @@
       <c r="H230" t="n">
         <v>138</v>
       </c>
-      <c r="I230" t="n">
-        <v>-1.51</v>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
       </c>
       <c r="J230" t="n">
         <v>1811479</v>
@@ -11980,8 +12438,10 @@
       <c r="H231" t="n">
         <v>64</v>
       </c>
-      <c r="I231" t="n">
-        <v>0.1</v>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
       </c>
       <c r="J231" t="n">
         <v>2633649</v>
@@ -12030,8 +12490,10 @@
       <c r="H232" t="n">
         <v>72</v>
       </c>
-      <c r="I232" t="n">
-        <v>-1.12</v>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
       </c>
       <c r="J232" t="n">
         <v>2726739</v>
@@ -12080,8 +12542,10 @@
       <c r="H233" t="n">
         <v>89</v>
       </c>
-      <c r="I233" t="n">
-        <v>-0.67</v>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
       </c>
       <c r="J233" t="n">
         <v>2830539</v>
@@ -12130,8 +12594,10 @@
       <c r="H234" t="n">
         <v>130</v>
       </c>
-      <c r="I234" t="n">
-        <v>0.6</v>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
       </c>
       <c r="J234" t="n">
         <v>1801230</v>
@@ -12180,8 +12646,10 @@
       <c r="H235" t="n">
         <v>53</v>
       </c>
-      <c r="I235" t="n">
-        <v>0.05</v>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
       </c>
       <c r="J235" t="n">
         <v>9189013</v>
@@ -12230,8 +12698,10 @@
       <c r="H236" t="n">
         <v>138</v>
       </c>
-      <c r="I236" t="n">
-        <v>-0.35</v>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
       </c>
       <c r="J236" t="n">
         <v>1286045</v>
@@ -12280,8 +12750,10 @@
       <c r="H237" t="n">
         <v>250</v>
       </c>
-      <c r="I237" t="n">
-        <v>0.63</v>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="J237" t="n">
         <v>1619395</v>
@@ -12330,8 +12802,10 @@
       <c r="H238" t="n">
         <v>83</v>
       </c>
-      <c r="I238" t="n">
-        <v>-1.24</v>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
       </c>
       <c r="J238" t="n">
         <v>5978815</v>
@@ -12380,8 +12854,10 @@
       <c r="H239" t="n">
         <v>88</v>
       </c>
-      <c r="I239" t="n">
-        <v>-0.5600000000000001</v>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>-0.63%</t>
+        </is>
       </c>
       <c r="J239" t="n">
         <v>1273486</v>
@@ -12430,8 +12906,10 @@
       <c r="H240" t="n">
         <v>47</v>
       </c>
-      <c r="I240" t="n">
-        <v>-0.15</v>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
       </c>
       <c r="J240" t="n">
         <v>3754570</v>
@@ -12480,8 +12958,10 @@
       <c r="H241" t="n">
         <v>60</v>
       </c>
-      <c r="I241" t="n">
-        <v>0.22</v>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
       </c>
       <c r="J241" t="n">
         <v>5336535</v>
@@ -12530,8 +13010,10 @@
       <c r="H242" t="n">
         <v>449</v>
       </c>
-      <c r="I242" t="n">
-        <v>4.59</v>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
       </c>
       <c r="J242" t="n">
         <v>977794</v>
@@ -12580,8 +13062,10 @@
       <c r="H243" t="n">
         <v>148</v>
       </c>
-      <c r="I243" t="n">
-        <v>0.13</v>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
       </c>
       <c r="J243" t="n">
         <v>2257532</v>
@@ -12630,8 +13114,10 @@
       <c r="H244" t="n">
         <v>305</v>
       </c>
-      <c r="I244" t="n">
-        <v>0.5600000000000001</v>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
       </c>
       <c r="J244" t="n">
         <v>493962</v>
@@ -12680,8 +13166,10 @@
       <c r="H245" t="n">
         <v>34</v>
       </c>
-      <c r="I245" t="n">
-        <v>-0.28</v>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
       </c>
       <c r="J245" t="n">
         <v>5472433</v>
@@ -12730,8 +13218,10 @@
       <c r="H246" t="n">
         <v>237</v>
       </c>
-      <c r="I246" t="n">
-        <v>1.74</v>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
       </c>
       <c r="J246" t="n">
         <v>770615</v>
@@ -12780,8 +13270,10 @@
       <c r="H247" t="n">
         <v>62</v>
       </c>
-      <c r="I247" t="n">
-        <v>0.48</v>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
       </c>
       <c r="J247" t="n">
         <v>5973002</v>
@@ -12830,8 +13322,10 @@
       <c r="H248" t="n">
         <v>242</v>
       </c>
-      <c r="I248" t="n">
-        <v>-0.07000000000000001</v>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
       </c>
       <c r="J248" t="n">
         <v>671216</v>
@@ -12880,8 +13374,10 @@
       <c r="H249" t="n">
         <v>34</v>
       </c>
-      <c r="I249" t="n">
-        <v>-0.9399999999999999</v>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>-2.66%</t>
+        </is>
       </c>
       <c r="J249" t="n">
         <v>22926672</v>
@@ -12930,8 +13426,10 @@
       <c r="H250" t="n">
         <v>75</v>
       </c>
-      <c r="I250" t="n">
-        <v>0.06</v>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
       </c>
       <c r="J250" t="n">
         <v>1854369</v>
@@ -12980,8 +13478,10 @@
       <c r="H251" t="n">
         <v>47</v>
       </c>
-      <c r="I251" t="n">
-        <v>0.3</v>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
       </c>
       <c r="J251" t="n">
         <v>6188639</v>
@@ -13030,8 +13530,10 @@
       <c r="H252" t="n">
         <v>127</v>
       </c>
-      <c r="I252" t="n">
-        <v>-0.99</v>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>-0.77%</t>
+        </is>
       </c>
       <c r="J252" t="n">
         <v>1630758</v>
@@ -13080,8 +13582,10 @@
       <c r="H253" t="n">
         <v>151</v>
       </c>
-      <c r="I253" t="n">
-        <v>-0.93</v>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
       </c>
       <c r="J253" t="n">
         <v>1368310</v>
@@ -13130,8 +13634,10 @@
       <c r="H254" t="n">
         <v>45</v>
       </c>
-      <c r="I254" t="n">
-        <v>1.16</v>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>2.61%</t>
+        </is>
       </c>
       <c r="J254" t="n">
         <v>7174080</v>
@@ -13180,8 +13686,10 @@
       <c r="H255" t="n">
         <v>85</v>
       </c>
-      <c r="I255" t="n">
-        <v>-0.45</v>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
       </c>
       <c r="J255" t="n">
         <v>5809438</v>
@@ -13230,8 +13738,10 @@
       <c r="H256" t="n">
         <v>36</v>
       </c>
-      <c r="I256" t="n">
-        <v>-0.45</v>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>-1.23%</t>
+        </is>
       </c>
       <c r="J256" t="n">
         <v>6682776</v>
@@ -13280,8 +13790,10 @@
       <c r="H257" t="n">
         <v>31</v>
       </c>
-      <c r="I257" t="n">
-        <v>-0.24</v>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
       </c>
       <c r="J257" t="n">
         <v>6165563</v>
@@ -13330,8 +13842,10 @@
       <c r="H258" t="n">
         <v>55</v>
       </c>
-      <c r="I258" t="n">
-        <v>0.38</v>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
       </c>
       <c r="J258" t="n">
         <v>2549869</v>
@@ -13380,8 +13894,10 @@
       <c r="H259" t="n">
         <v>73</v>
       </c>
-      <c r="I259" t="n">
-        <v>-0.05</v>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>-0.07%</t>
+        </is>
       </c>
       <c r="J259" t="n">
         <v>3753817</v>
@@ -13430,8 +13946,10 @@
       <c r="H260" t="n">
         <v>215</v>
       </c>
-      <c r="I260" t="n">
-        <v>-0.16</v>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-0.07%</t>
+        </is>
       </c>
       <c r="J260" t="n">
         <v>893313</v>
@@ -13480,8 +13998,10 @@
       <c r="H261" t="n">
         <v>90</v>
       </c>
-      <c r="I261" t="n">
-        <v>-0.11</v>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
       </c>
       <c r="J261" t="n">
         <v>1964455</v>
@@ -13530,8 +14050,10 @@
       <c r="H262" t="n">
         <v>121</v>
       </c>
-      <c r="I262" t="n">
-        <v>-1.58</v>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
       </c>
       <c r="J262" t="n">
         <v>2074750</v>
@@ -13580,8 +14102,10 @@
       <c r="H263" t="n">
         <v>95</v>
       </c>
-      <c r="I263" t="n">
-        <v>-0.27</v>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
       </c>
       <c r="J263" t="n">
         <v>1574786</v>
@@ -13630,8 +14154,10 @@
       <c r="H264" t="n">
         <v>61</v>
       </c>
-      <c r="I264" t="n">
-        <v>0.11</v>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
       </c>
       <c r="J264" t="n">
         <v>2947565</v>
@@ -13680,8 +14206,10 @@
       <c r="H265" t="n">
         <v>249</v>
       </c>
-      <c r="I265" t="n">
-        <v>-2.18</v>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
       </c>
       <c r="J265" t="n">
         <v>1061086</v>
@@ -13730,8 +14258,10 @@
       <c r="H266" t="n">
         <v>634</v>
       </c>
-      <c r="I266" t="n">
-        <v>-0.6</v>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>-0.09%</t>
+        </is>
       </c>
       <c r="J266" t="n">
         <v>320644</v>
@@ -13780,8 +14310,10 @@
       <c r="H267" t="n">
         <v>490</v>
       </c>
-      <c r="I267" t="n">
-        <v>0.59</v>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
       </c>
       <c r="J267" t="n">
         <v>299669</v>
@@ -13830,8 +14362,10 @@
       <c r="H268" t="n">
         <v>74</v>
       </c>
-      <c r="I268" t="n">
-        <v>-0.37</v>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
       </c>
       <c r="J268" t="n">
         <v>1685823</v>
@@ -13880,8 +14414,10 @@
       <c r="H269" t="n">
         <v>223</v>
       </c>
-      <c r="I269" t="n">
-        <v>-1.31</v>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
+        </is>
       </c>
       <c r="J269" t="n">
         <v>811723</v>
@@ -13930,8 +14466,10 @@
       <c r="H270" t="n">
         <v>30</v>
       </c>
-      <c r="I270" t="n">
-        <v>-0.42</v>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
+        </is>
       </c>
       <c r="J270" t="n">
         <v>13450576</v>
@@ -13980,8 +14518,10 @@
       <c r="H271" t="n">
         <v>222</v>
       </c>
-      <c r="I271" t="n">
-        <v>-1.88</v>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
       </c>
       <c r="J271" t="n">
         <v>539241</v>
@@ -14030,8 +14570,10 @@
       <c r="H272" t="n">
         <v>11</v>
       </c>
-      <c r="I272" t="n">
-        <v>-0.35</v>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>-2.84%</t>
+        </is>
       </c>
       <c r="J272" t="n">
         <v>17836673</v>
@@ -14080,8 +14622,10 @@
       <c r="H273" t="n">
         <v>45</v>
       </c>
-      <c r="I273" t="n">
-        <v>-0.33</v>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>-0.72%</t>
+        </is>
       </c>
       <c r="J273" t="n">
         <v>11251423</v>
@@ -14130,8 +14674,10 @@
       <c r="H274" t="n">
         <v>130</v>
       </c>
-      <c r="I274" t="n">
-        <v>-0.95</v>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>-0.72%</t>
+        </is>
       </c>
       <c r="J274" t="n">
         <v>1585112</v>
@@ -14180,8 +14726,10 @@
       <c r="H275" t="n">
         <v>1148</v>
       </c>
-      <c r="I275" t="n">
-        <v>13.77</v>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
       </c>
       <c r="J275" t="n">
         <v>272881</v>
@@ -14230,8 +14778,10 @@
       <c r="H276" t="n">
         <v>58</v>
       </c>
-      <c r="I276" t="n">
-        <v>0.45</v>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
       </c>
       <c r="J276" t="n">
         <v>1798222</v>
@@ -14280,8 +14830,10 @@
       <c r="H277" t="n">
         <v>91</v>
       </c>
-      <c r="I277" t="n">
-        <v>-0.26</v>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
       </c>
       <c r="J277" t="n">
         <v>2055049</v>
@@ -14330,8 +14882,10 @@
       <c r="H278" t="n">
         <v>74</v>
       </c>
-      <c r="I278" t="n">
-        <v>-0.24</v>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>-0.32%</t>
+        </is>
       </c>
       <c r="J278" t="n">
         <v>1838011</v>
@@ -14380,8 +14934,10 @@
       <c r="H279" t="n">
         <v>155</v>
       </c>
-      <c r="I279" t="n">
-        <v>-0.89</v>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>-0.57%</t>
+        </is>
       </c>
       <c r="J279" t="n">
         <v>1688484</v>
@@ -14430,8 +14986,10 @@
       <c r="H280" t="n">
         <v>158</v>
       </c>
-      <c r="I280" t="n">
-        <v>0.13</v>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
       </c>
       <c r="J280" t="n">
         <v>1669990</v>
@@ -14480,8 +15038,10 @@
       <c r="H281" t="n">
         <v>126</v>
       </c>
-      <c r="I281" t="n">
-        <v>-4.42</v>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>-3.39%</t>
+        </is>
       </c>
       <c r="J281" t="n">
         <v>3261800</v>
@@ -14530,8 +15090,10 @@
       <c r="H282" t="n">
         <v>158</v>
       </c>
-      <c r="I282" t="n">
-        <v>-1.97</v>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>-1.23%</t>
+        </is>
       </c>
       <c r="J282" t="n">
         <v>1901430</v>
@@ -14580,8 +15142,10 @@
       <c r="H283" t="n">
         <v>189</v>
       </c>
-      <c r="I283" t="n">
-        <v>1.84</v>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
       </c>
       <c r="J283" t="n">
         <v>801134</v>
@@ -14630,8 +15194,10 @@
       <c r="H284" t="n">
         <v>69</v>
       </c>
-      <c r="I284" t="n">
-        <v>-0.33</v>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
       </c>
       <c r="J284" t="n">
         <v>2122073</v>
@@ -14680,8 +15246,10 @@
       <c r="H285" t="n">
         <v>106</v>
       </c>
-      <c r="I285" t="n">
-        <v>0.06</v>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
       </c>
       <c r="J285" t="n">
         <v>1378610</v>
@@ -14730,8 +15298,10 @@
       <c r="H286" t="n">
         <v>110</v>
       </c>
-      <c r="I286" t="n">
-        <v>0.31</v>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
       </c>
       <c r="J286" t="n">
         <v>1011517</v>
@@ -14780,8 +15350,10 @@
       <c r="H287" t="n">
         <v>246</v>
       </c>
-      <c r="I287" t="n">
-        <v>-2.17</v>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
       </c>
       <c r="J287" t="n">
         <v>656907</v>
@@ -14830,8 +15402,10 @@
       <c r="H288" t="n">
         <v>41</v>
       </c>
-      <c r="I288" t="n">
-        <v>-0.82</v>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-1.95%</t>
+        </is>
       </c>
       <c r="J288" t="n">
         <v>8539404</v>
@@ -14880,8 +15454,10 @@
       <c r="H289" t="n">
         <v>356</v>
       </c>
-      <c r="I289" t="n">
-        <v>-4.25</v>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
       </c>
       <c r="J289" t="n">
         <v>238402</v>
@@ -14930,8 +15506,10 @@
       <c r="H290" t="n">
         <v>82</v>
       </c>
-      <c r="I290" t="n">
-        <v>-0.45</v>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
       </c>
       <c r="J290" t="n">
         <v>2654465</v>
@@ -14980,8 +15558,10 @@
       <c r="H291" t="n">
         <v>297</v>
       </c>
-      <c r="I291" t="n">
-        <v>1.35</v>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
       </c>
       <c r="J291" t="n">
         <v>446153</v>
@@ -15030,8 +15610,10 @@
       <c r="H292" t="n">
         <v>1185</v>
       </c>
-      <c r="I292" t="n">
-        <v>-19.97</v>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
       </c>
       <c r="J292" t="n">
         <v>156260</v>
@@ -15080,8 +15662,10 @@
       <c r="H293" t="n">
         <v>30</v>
       </c>
-      <c r="I293" t="n">
-        <v>-0.23</v>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
       </c>
       <c r="J293" t="n">
         <v>4372394</v>
@@ -15130,8 +15714,10 @@
       <c r="H294" t="n">
         <v>130</v>
       </c>
-      <c r="I294" t="n">
-        <v>-0.96</v>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
       </c>
       <c r="J294" t="n">
         <v>956016</v>
@@ -15180,8 +15766,10 @@
       <c r="H295" t="n">
         <v>72</v>
       </c>
-      <c r="I295" t="n">
-        <v>-0.12</v>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
       </c>
       <c r="J295" t="n">
         <v>1314876</v>
@@ -15230,8 +15818,10 @@
       <c r="H296" t="n">
         <v>169</v>
       </c>
-      <c r="I296" t="n">
-        <v>0.91</v>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
       </c>
       <c r="J296" t="n">
         <v>549465</v>
@@ -15280,8 +15870,10 @@
       <c r="H297" t="n">
         <v>101</v>
       </c>
-      <c r="I297" t="n">
-        <v>-0.51</v>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
       </c>
       <c r="J297" t="n">
         <v>2131714</v>
@@ -15330,8 +15922,10 @@
       <c r="H298" t="n">
         <v>118</v>
       </c>
-      <c r="I298" t="n">
-        <v>-0.04</v>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
       </c>
       <c r="J298" t="n">
         <v>1906293</v>
@@ -15380,8 +15974,10 @@
       <c r="H299" t="n">
         <v>87</v>
       </c>
-      <c r="I299" t="n">
-        <v>-0.85</v>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
       </c>
       <c r="J299" t="n">
         <v>2095369</v>
@@ -15430,8 +16026,10 @@
       <c r="H300" t="n">
         <v>238</v>
       </c>
-      <c r="I300" t="n">
-        <v>0.4</v>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
       </c>
       <c r="J300" t="n">
         <v>552568</v>
@@ -15480,8 +16078,10 @@
       <c r="H301" t="n">
         <v>33</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
       </c>
       <c r="J301" t="n">
         <v>3193071</v>
@@ -15530,8 +16130,10 @@
       <c r="H302" t="n">
         <v>80</v>
       </c>
-      <c r="I302" t="n">
-        <v>0.18</v>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
       </c>
       <c r="J302" t="n">
         <v>1655290</v>
@@ -15580,8 +16182,10 @@
       <c r="H303" t="n">
         <v>126</v>
       </c>
-      <c r="I303" t="n">
-        <v>1.01</v>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
       </c>
       <c r="J303" t="n">
         <v>559196</v>
@@ -15630,8 +16234,10 @@
       <c r="H304" t="n">
         <v>18</v>
       </c>
-      <c r="I304" t="n">
-        <v>-0.17</v>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
       </c>
       <c r="J304" t="n">
         <v>25728577</v>
@@ -15680,8 +16286,10 @@
       <c r="H305" t="n">
         <v>35</v>
       </c>
-      <c r="I305" t="n">
-        <v>-0.21</v>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
       </c>
       <c r="J305" t="n">
         <v>7776332</v>
@@ -15730,8 +16338,10 @@
       <c r="H306" t="n">
         <v>106</v>
       </c>
-      <c r="I306" t="n">
-        <v>0.47</v>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
       </c>
       <c r="J306" t="n">
         <v>1780477</v>
@@ -15780,8 +16390,10 @@
       <c r="H307" t="n">
         <v>77</v>
       </c>
-      <c r="I307" t="n">
-        <v>-0.8100000000000001</v>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-1.04%</t>
+        </is>
       </c>
       <c r="J307" t="n">
         <v>1639693</v>
@@ -15830,8 +16442,10 @@
       <c r="H308" t="n">
         <v>488</v>
       </c>
-      <c r="I308" t="n">
-        <v>-2.47</v>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
       </c>
       <c r="J308" t="n">
         <v>503321</v>
@@ -15880,8 +16494,10 @@
       <c r="H309" t="n">
         <v>61</v>
       </c>
-      <c r="I309" t="n">
-        <v>0.03</v>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
       </c>
       <c r="J309" t="n">
         <v>2402816</v>
@@ -15930,8 +16546,10 @@
       <c r="H310" t="n">
         <v>215</v>
       </c>
-      <c r="I310" t="n">
-        <v>-2.1</v>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
       </c>
       <c r="J310" t="n">
         <v>1275896</v>
@@ -15980,8 +16598,10 @@
       <c r="H311" t="n">
         <v>111</v>
       </c>
-      <c r="I311" t="n">
-        <v>0.98</v>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
       </c>
       <c r="J311" t="n">
         <v>864659</v>
@@ -16030,8 +16650,10 @@
       <c r="H312" t="n">
         <v>196</v>
       </c>
-      <c r="I312" t="n">
-        <v>1.71</v>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
       </c>
       <c r="J312" t="n">
         <v>640599</v>
@@ -16080,8 +16702,10 @@
       <c r="H313" t="n">
         <v>92</v>
       </c>
-      <c r="I313" t="n">
-        <v>0.63</v>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
       </c>
       <c r="J313" t="n">
         <v>915159</v>
@@ -16130,8 +16754,10 @@
       <c r="H314" t="n">
         <v>137</v>
       </c>
-      <c r="I314" t="n">
-        <v>-5.27</v>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-3.7%</t>
+        </is>
       </c>
       <c r="J314" t="n">
         <v>1413921</v>
@@ -16180,8 +16806,10 @@
       <c r="H315" t="n">
         <v>109</v>
       </c>
-      <c r="I315" t="n">
-        <v>-0.41</v>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
       </c>
       <c r="J315" t="n">
         <v>934526</v>
@@ -16230,8 +16858,10 @@
       <c r="H316" t="n">
         <v>129</v>
       </c>
-      <c r="I316" t="n">
-        <v>-1.97</v>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
       </c>
       <c r="J316" t="n">
         <v>1395906</v>
@@ -16280,8 +16910,10 @@
       <c r="H317" t="n">
         <v>42</v>
       </c>
-      <c r="I317" t="n">
-        <v>0.99</v>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
       </c>
       <c r="J317" t="n">
         <v>6396263</v>
@@ -16330,8 +16962,10 @@
       <c r="H318" t="n">
         <v>102</v>
       </c>
-      <c r="I318" t="n">
-        <v>-0.28</v>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
       </c>
       <c r="J318" t="n">
         <v>2249298</v>
@@ -16380,8 +17014,10 @@
       <c r="H319" t="n">
         <v>122</v>
       </c>
-      <c r="I319" t="n">
-        <v>0.11</v>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
       </c>
       <c r="J319" t="n">
         <v>792710</v>
@@ -16430,8 +17066,10 @@
       <c r="H320" t="n">
         <v>53</v>
       </c>
-      <c r="I320" t="n">
-        <v>0.2</v>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
       </c>
       <c r="J320" t="n">
         <v>1827723</v>
@@ -16480,8 +17118,10 @@
       <c r="H321" t="n">
         <v>6840</v>
       </c>
-      <c r="I321" t="n">
-        <v>-20.73</v>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
       </c>
       <c r="J321" t="n">
         <v>23529</v>
@@ -16530,8 +17170,10 @@
       <c r="H322" t="n">
         <v>61</v>
       </c>
-      <c r="I322" t="n">
-        <v>0.28</v>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
       </c>
       <c r="J322" t="n">
         <v>4092083</v>
@@ -16580,8 +17222,10 @@
       <c r="H323" t="n">
         <v>16</v>
       </c>
-      <c r="I323" t="n">
-        <v>0.01</v>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
       </c>
       <c r="J323" t="n">
         <v>10556320</v>
@@ -16630,8 +17274,10 @@
       <c r="H324" t="n">
         <v>24</v>
       </c>
-      <c r="I324" t="n">
-        <v>-0.28</v>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
       </c>
       <c r="J324" t="n">
         <v>10502201</v>
@@ -16680,8 +17326,10 @@
       <c r="H325" t="n">
         <v>93</v>
       </c>
-      <c r="I325" t="n">
-        <v>0.54</v>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
       </c>
       <c r="J325" t="n">
         <v>1489802</v>
@@ -16730,8 +17378,10 @@
       <c r="H326" t="n">
         <v>101</v>
       </c>
-      <c r="I326" t="n">
-        <v>0.53</v>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
       </c>
       <c r="J326" t="n">
         <v>1901073</v>
@@ -16780,8 +17430,10 @@
       <c r="H327" t="n">
         <v>366</v>
       </c>
-      <c r="I327" t="n">
-        <v>0.85</v>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
       </c>
       <c r="J327" t="n">
         <v>234062</v>
@@ -16830,8 +17482,10 @@
       <c r="H328" t="n">
         <v>215</v>
       </c>
-      <c r="I328" t="n">
-        <v>2.3</v>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
       </c>
       <c r="J328" t="n">
         <v>698796</v>
@@ -16880,8 +17534,10 @@
       <c r="H329" t="n">
         <v>151</v>
       </c>
-      <c r="I329" t="n">
-        <v>-0.95</v>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-0.62%</t>
+        </is>
       </c>
       <c r="J329" t="n">
         <v>601088</v>
@@ -16930,8 +17586,10 @@
       <c r="H330" t="n">
         <v>36</v>
       </c>
-      <c r="I330" t="n">
-        <v>-0.18</v>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
       </c>
       <c r="J330" t="n">
         <v>2658692</v>
@@ -16980,8 +17638,10 @@
       <c r="H331" t="n">
         <v>34</v>
       </c>
-      <c r="I331" t="n">
-        <v>-0.12</v>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
       </c>
       <c r="J331" t="n">
         <v>3341162</v>
@@ -17030,8 +17690,10 @@
       <c r="H332" t="n">
         <v>206</v>
       </c>
-      <c r="I332" t="n">
-        <v>-2.14</v>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
       </c>
       <c r="J332" t="n">
         <v>908861</v>
@@ -17080,8 +17742,10 @@
       <c r="H333" t="n">
         <v>42</v>
       </c>
-      <c r="I333" t="n">
-        <v>0.26</v>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
       </c>
       <c r="J333" t="n">
         <v>1250376</v>
@@ -17130,8 +17794,10 @@
       <c r="H334" t="n">
         <v>148</v>
       </c>
-      <c r="I334" t="n">
-        <v>1.85</v>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
       </c>
       <c r="J334" t="n">
         <v>1814862</v>
@@ -17180,8 +17846,10 @@
       <c r="H335" t="n">
         <v>129</v>
       </c>
-      <c r="I335" t="n">
-        <v>-2.94</v>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
+        </is>
       </c>
       <c r="J335" t="n">
         <v>3460187</v>
@@ -17230,8 +17898,10 @@
       <c r="H336" t="n">
         <v>171</v>
       </c>
-      <c r="I336" t="n">
-        <v>0.42</v>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="J336" t="n">
         <v>813501</v>
@@ -17280,8 +17950,10 @@
       <c r="H337" t="n">
         <v>198</v>
       </c>
-      <c r="I337" t="n">
-        <v>-4.75</v>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-2.34%</t>
+        </is>
       </c>
       <c r="J337" t="n">
         <v>790921</v>
@@ -17330,8 +18002,10 @@
       <c r="H338" t="n">
         <v>71</v>
       </c>
-      <c r="I338" t="n">
-        <v>0.96</v>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
       </c>
       <c r="J338" t="n">
         <v>1827815</v>
@@ -17380,8 +18054,10 @@
       <c r="H339" t="n">
         <v>79</v>
       </c>
-      <c r="I339" t="n">
-        <v>-0.99</v>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-1.24%</t>
+        </is>
       </c>
       <c r="J339" t="n">
         <v>1547521</v>
@@ -17430,8 +18106,10 @@
       <c r="H340" t="n">
         <v>167</v>
       </c>
-      <c r="I340" t="n">
-        <v>4.01</v>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>2.46%</t>
+        </is>
       </c>
       <c r="J340" t="n">
         <v>1439110</v>
@@ -17480,8 +18158,10 @@
       <c r="H341" t="n">
         <v>425</v>
       </c>
-      <c r="I341" t="n">
-        <v>-1.07</v>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-0.25%</t>
+        </is>
       </c>
       <c r="J341" t="n">
         <v>251677</v>
@@ -17530,8 +18210,10 @@
       <c r="H342" t="n">
         <v>277</v>
       </c>
-      <c r="I342" t="n">
-        <v>-0.8100000000000001</v>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
       </c>
       <c r="J342" t="n">
         <v>726581</v>
@@ -17580,8 +18262,10 @@
       <c r="H343" t="n">
         <v>261</v>
       </c>
-      <c r="I343" t="n">
-        <v>7.17</v>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
       </c>
       <c r="J343" t="n">
         <v>1356401</v>
@@ -17630,8 +18314,10 @@
       <c r="H344" t="n">
         <v>68</v>
       </c>
-      <c r="I344" t="n">
-        <v>0.27</v>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
       </c>
       <c r="J344" t="n">
         <v>1190966</v>
@@ -17680,8 +18366,10 @@
       <c r="H345" t="n">
         <v>80</v>
       </c>
-      <c r="I345" t="n">
-        <v>1.65</v>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
       </c>
       <c r="J345" t="n">
         <v>1900072</v>
@@ -17730,8 +18418,10 @@
       <c r="H346" t="n">
         <v>49</v>
       </c>
-      <c r="I346" t="n">
-        <v>-0.48</v>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
       </c>
       <c r="J346" t="n">
         <v>2227271</v>
@@ -17780,8 +18470,10 @@
       <c r="H347" t="n">
         <v>26</v>
       </c>
-      <c r="I347" t="n">
-        <v>-0.09</v>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
       </c>
       <c r="J347" t="n">
         <v>7446062</v>
@@ -17830,8 +18522,10 @@
       <c r="H348" t="n">
         <v>122</v>
       </c>
-      <c r="I348" t="n">
-        <v>-6.37</v>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-4.96%</t>
+        </is>
       </c>
       <c r="J348" t="n">
         <v>2148467</v>
@@ -17880,14 +18574,16 @@
       <c r="H349" t="n">
         <v>160</v>
       </c>
-      <c r="I349" t="n">
-        <v>-5.01</v>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-3.03%</t>
+        </is>
       </c>
       <c r="J349" t="n">
-        <v>2305787</v>
+        <v>2618306</v>
       </c>
       <c r="K349" t="n">
-        <v>4047507</v>
+        <v>4073550</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -17930,8 +18626,10 @@
       <c r="H350" t="n">
         <v>139</v>
       </c>
-      <c r="I350" t="n">
-        <v>0.96</v>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
       </c>
       <c r="J350" t="n">
         <v>781017</v>
@@ -17980,8 +18678,10 @@
       <c r="H351" t="n">
         <v>38</v>
       </c>
-      <c r="I351" t="n">
-        <v>-0.52</v>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-1.34%</t>
+        </is>
       </c>
       <c r="J351" t="n">
         <v>2648475</v>
@@ -18030,8 +18730,10 @@
       <c r="H352" t="n">
         <v>25</v>
       </c>
-      <c r="I352" t="n">
-        <v>-0.29</v>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
       </c>
       <c r="J352" t="n">
         <v>6442016</v>
@@ -18080,8 +18782,10 @@
       <c r="H353" t="n">
         <v>85</v>
       </c>
-      <c r="I353" t="n">
-        <v>-1.09</v>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-1.25%</t>
+        </is>
       </c>
       <c r="J353" t="n">
         <v>1119066</v>
@@ -18130,8 +18834,10 @@
       <c r="H354" t="n">
         <v>255</v>
       </c>
-      <c r="I354" t="n">
-        <v>2.23</v>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
       </c>
       <c r="J354" t="n">
         <v>366084</v>
@@ -18180,8 +18886,10 @@
       <c r="H355" t="n">
         <v>322</v>
       </c>
-      <c r="I355" t="n">
-        <v>1.93</v>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
       </c>
       <c r="J355" t="n">
         <v>498151</v>
@@ -18230,8 +18938,10 @@
       <c r="H356" t="n">
         <v>71</v>
       </c>
-      <c r="I356" t="n">
-        <v>-0.87</v>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
       </c>
       <c r="J356" t="n">
         <v>4102313</v>
@@ -18280,8 +18990,10 @@
       <c r="H357" t="n">
         <v>219</v>
       </c>
-      <c r="I357" t="n">
-        <v>-1.08</v>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
       </c>
       <c r="J357" t="n">
         <v>676419</v>
@@ -18330,8 +19042,10 @@
       <c r="H358" t="n">
         <v>77</v>
       </c>
-      <c r="I358" t="n">
-        <v>-1.18</v>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
       </c>
       <c r="J358" t="n">
         <v>859129</v>
@@ -18380,8 +19094,10 @@
       <c r="H359" t="n">
         <v>89</v>
       </c>
-      <c r="I359" t="n">
-        <v>0.91</v>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
       </c>
       <c r="J359" t="n">
         <v>2031221</v>
@@ -18430,8 +19146,10 @@
       <c r="H360" t="n">
         <v>53</v>
       </c>
-      <c r="I360" t="n">
-        <v>-0.1</v>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
       </c>
       <c r="J360" t="n">
         <v>2281238</v>
@@ -18480,8 +19198,10 @@
       <c r="H361" t="n">
         <v>174</v>
       </c>
-      <c r="I361" t="n">
-        <v>-0.05</v>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
       </c>
       <c r="J361" t="n">
         <v>654084</v>
@@ -18530,8 +19250,10 @@
       <c r="H362" t="n">
         <v>126</v>
       </c>
-      <c r="I362" t="n">
-        <v>1.4</v>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
       </c>
       <c r="J362" t="n">
         <v>2077847</v>
@@ -18580,8 +19302,10 @@
       <c r="H363" t="n">
         <v>12</v>
       </c>
-      <c r="I363" t="n">
-        <v>-0.3</v>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-2.31%</t>
+        </is>
       </c>
       <c r="J363" t="n">
         <v>16809665</v>
@@ -18630,8 +19354,10 @@
       <c r="H364" t="n">
         <v>51</v>
       </c>
-      <c r="I364" t="n">
-        <v>-0.09</v>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
       </c>
       <c r="J364" t="n">
         <v>3099542</v>
@@ -18680,8 +19406,10 @@
       <c r="H365" t="n">
         <v>70</v>
       </c>
-      <c r="I365" t="n">
-        <v>0.1</v>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
       </c>
       <c r="J365" t="n">
         <v>1240213</v>
@@ -18730,8 +19458,10 @@
       <c r="H366" t="n">
         <v>67</v>
       </c>
-      <c r="I366" t="n">
-        <v>0.6</v>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
       </c>
       <c r="J366" t="n">
         <v>1582535</v>
@@ -18780,8 +19510,10 @@
       <c r="H367" t="n">
         <v>28</v>
       </c>
-      <c r="I367" t="n">
-        <v>-0.17</v>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
       </c>
       <c r="J367" t="n">
         <v>3226586</v>
@@ -18830,8 +19562,10 @@
       <c r="H368" t="n">
         <v>57</v>
       </c>
-      <c r="I368" t="n">
-        <v>-1.05</v>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
+        </is>
       </c>
       <c r="J368" t="n">
         <v>3161282</v>
@@ -18880,8 +19614,10 @@
       <c r="H369" t="n">
         <v>365</v>
       </c>
-      <c r="I369" t="n">
-        <v>2.23</v>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
       </c>
       <c r="J369" t="n">
         <v>289589</v>
@@ -18930,8 +19666,10 @@
       <c r="H370" t="n">
         <v>119</v>
       </c>
-      <c r="I370" t="n">
-        <v>0.46</v>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
       </c>
       <c r="J370" t="n">
         <v>1057064</v>
@@ -18980,8 +19718,10 @@
       <c r="H371" t="n">
         <v>111</v>
       </c>
-      <c r="I371" t="n">
-        <v>-0.78</v>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
       </c>
       <c r="J371" t="n">
         <v>1156784</v>
@@ -19030,8 +19770,10 @@
       <c r="H372" t="n">
         <v>19</v>
       </c>
-      <c r="I372" t="n">
-        <v>-0.5600000000000001</v>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>-2.84%</t>
+        </is>
       </c>
       <c r="J372" t="n">
         <v>9490991</v>
@@ -19080,8 +19822,10 @@
       <c r="H373" t="n">
         <v>165</v>
       </c>
-      <c r="I373" t="n">
-        <v>-0.5600000000000001</v>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>-0.34%</t>
+        </is>
       </c>
       <c r="J373" t="n">
         <v>2502087</v>
@@ -19130,8 +19874,10 @@
       <c r="H374" t="n">
         <v>85</v>
       </c>
-      <c r="I374" t="n">
-        <v>-0.22</v>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>-0.26%</t>
+        </is>
       </c>
       <c r="J374" t="n">
         <v>1091717</v>
@@ -19180,8 +19926,10 @@
       <c r="H375" t="n">
         <v>142</v>
       </c>
-      <c r="I375" t="n">
-        <v>0.74</v>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
       </c>
       <c r="J375" t="n">
         <v>705035</v>
@@ -19230,8 +19978,10 @@
       <c r="H376" t="n">
         <v>418</v>
       </c>
-      <c r="I376" t="n">
-        <v>7.32</v>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
       </c>
       <c r="J376" t="n">
         <v>283489</v>
@@ -19280,8 +20030,10 @@
       <c r="H377" t="n">
         <v>83</v>
       </c>
-      <c r="I377" t="n">
-        <v>-0.35</v>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
       </c>
       <c r="J377" t="n">
         <v>1950068</v>
@@ -19330,8 +20082,10 @@
       <c r="H378" t="n">
         <v>325</v>
       </c>
-      <c r="I378" t="n">
-        <v>0.02</v>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
       </c>
       <c r="J378" t="n">
         <v>338148</v>
@@ -19380,8 +20134,10 @@
       <c r="H379" t="n">
         <v>458</v>
       </c>
-      <c r="I379" t="n">
-        <v>-0.98</v>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
       </c>
       <c r="J379" t="n">
         <v>347099</v>
@@ -19430,8 +20186,10 @@
       <c r="H380" t="n">
         <v>300</v>
       </c>
-      <c r="I380" t="n">
-        <v>6.56</v>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
       </c>
       <c r="J380" t="n">
         <v>889473</v>
@@ -19480,8 +20238,10 @@
       <c r="H381" t="n">
         <v>31</v>
       </c>
-      <c r="I381" t="n">
-        <v>0.33</v>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
       </c>
       <c r="J381" t="n">
         <v>2878389</v>
@@ -19530,8 +20290,10 @@
       <c r="H382" t="n">
         <v>28</v>
       </c>
-      <c r="I382" t="n">
-        <v>0.09</v>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
       </c>
       <c r="J382" t="n">
         <v>7496013</v>
@@ -19580,8 +20342,10 @@
       <c r="H383" t="n">
         <v>145</v>
       </c>
-      <c r="I383" t="n">
-        <v>-1.23</v>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
       </c>
       <c r="J383" t="n">
         <v>2644822</v>
@@ -19630,8 +20394,10 @@
       <c r="H384" t="n">
         <v>86</v>
       </c>
-      <c r="I384" t="n">
-        <v>-0.24</v>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
       </c>
       <c r="J384" t="n">
         <v>1033686</v>
@@ -19680,8 +20446,10 @@
       <c r="H385" t="n">
         <v>71</v>
       </c>
-      <c r="I385" t="n">
-        <v>-0.25</v>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
       </c>
       <c r="J385" t="n">
         <v>1544970</v>
@@ -19730,8 +20498,10 @@
       <c r="H386" t="n">
         <v>114</v>
       </c>
-      <c r="I386" t="n">
-        <v>-0.6899999999999999</v>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
       </c>
       <c r="J386" t="n">
         <v>718113</v>
@@ -19780,8 +20550,10 @@
       <c r="H387" t="n">
         <v>58</v>
       </c>
-      <c r="I387" t="n">
-        <v>-0.24</v>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
       </c>
       <c r="J387" t="n">
         <v>2721988</v>
@@ -19830,8 +20602,10 @@
       <c r="H388" t="n">
         <v>124</v>
       </c>
-      <c r="I388" t="n">
-        <v>2.71</v>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
       </c>
       <c r="J388" t="n">
         <v>5690515</v>
@@ -19880,8 +20654,10 @@
       <c r="H389" t="n">
         <v>130</v>
       </c>
-      <c r="I389" t="n">
-        <v>-4.13</v>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
       </c>
       <c r="J389" t="n">
         <v>2208086</v>
@@ -19930,8 +20706,10 @@
       <c r="H390" t="n">
         <v>77</v>
       </c>
-      <c r="I390" t="n">
-        <v>-0.18</v>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
       </c>
       <c r="J390" t="n">
         <v>2338477</v>
@@ -19980,8 +20758,10 @@
       <c r="H391" t="n">
         <v>50</v>
       </c>
-      <c r="I391" t="n">
-        <v>-0.05</v>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
       </c>
       <c r="J391" t="n">
         <v>3108983</v>
@@ -20030,8 +20810,10 @@
       <c r="H392" t="n">
         <v>150</v>
       </c>
-      <c r="I392" t="n">
-        <v>-2.64</v>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>-1.72%</t>
+        </is>
       </c>
       <c r="J392" t="n">
         <v>622275</v>
@@ -20080,8 +20862,10 @@
       <c r="H393" t="n">
         <v>246</v>
       </c>
-      <c r="I393" t="n">
-        <v>1.32</v>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
       </c>
       <c r="J393" t="n">
         <v>567032</v>
@@ -20130,8 +20914,10 @@
       <c r="H394" t="n">
         <v>135</v>
       </c>
-      <c r="I394" t="n">
-        <v>0.21</v>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
       </c>
       <c r="J394" t="n">
         <v>727207</v>
@@ -20180,8 +20966,10 @@
       <c r="H395" t="n">
         <v>105</v>
       </c>
-      <c r="I395" t="n">
-        <v>0.21</v>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
       </c>
       <c r="J395" t="n">
         <v>2556792</v>
@@ -20230,8 +21018,10 @@
       <c r="H396" t="n">
         <v>211</v>
       </c>
-      <c r="I396" t="n">
-        <v>0.19</v>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
       </c>
       <c r="J396" t="n">
         <v>323043</v>
@@ -20280,8 +21070,10 @@
       <c r="H397" t="n">
         <v>198</v>
       </c>
-      <c r="I397" t="n">
-        <v>-0.32</v>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
       </c>
       <c r="J397" t="n">
         <v>338032</v>
@@ -20330,8 +21122,10 @@
       <c r="H398" t="n">
         <v>38</v>
       </c>
-      <c r="I398" t="n">
-        <v>-0.32</v>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
       </c>
       <c r="J398" t="n">
         <v>6426046</v>
@@ -20380,8 +21174,10 @@
       <c r="H399" t="n">
         <v>101</v>
       </c>
-      <c r="I399" t="n">
-        <v>-0.28</v>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
       </c>
       <c r="J399" t="n">
         <v>700363</v>
@@ -20430,8 +21226,10 @@
       <c r="H400" t="n">
         <v>126</v>
       </c>
-      <c r="I400" t="n">
-        <v>-1.37</v>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
       </c>
       <c r="J400" t="n">
         <v>668551</v>
@@ -20480,8 +21278,10 @@
       <c r="H401" t="n">
         <v>363</v>
       </c>
-      <c r="I401" t="n">
-        <v>3.79</v>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
       </c>
       <c r="J401" t="n">
         <v>679797</v>
@@ -20530,8 +21330,10 @@
       <c r="H402" t="n">
         <v>79</v>
       </c>
-      <c r="I402" t="n">
-        <v>0.01</v>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
       </c>
       <c r="J402" t="n">
         <v>924684</v>
@@ -20580,8 +21382,10 @@
       <c r="H403" t="n">
         <v>107</v>
       </c>
-      <c r="I403" t="n">
-        <v>2.78</v>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
       </c>
       <c r="J403" t="n">
         <v>1384834</v>
@@ -20630,8 +21434,10 @@
       <c r="H404" t="n">
         <v>37</v>
       </c>
-      <c r="I404" t="n">
-        <v>-0.16</v>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
       </c>
       <c r="J404" t="n">
         <v>4386216</v>
@@ -20680,8 +21486,10 @@
       <c r="H405" t="n">
         <v>32</v>
       </c>
-      <c r="I405" t="n">
-        <v>-1</v>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-2.94%</t>
+        </is>
       </c>
       <c r="J405" t="n">
         <v>4554051</v>
@@ -20730,8 +21538,10 @@
       <c r="H406" t="n">
         <v>68</v>
       </c>
-      <c r="I406" t="n">
-        <v>0.19</v>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
       </c>
       <c r="J406" t="n">
         <v>740440</v>
@@ -20780,8 +21590,10 @@
       <c r="H407" t="n">
         <v>135</v>
       </c>
-      <c r="I407" t="n">
-        <v>0.04</v>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
       </c>
       <c r="J407" t="n">
         <v>653279</v>
@@ -20830,8 +21642,10 @@
       <c r="H408" t="n">
         <v>67</v>
       </c>
-      <c r="I408" t="n">
-        <v>-1.09</v>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
       </c>
       <c r="J408" t="n">
         <v>1729355</v>
@@ -20880,8 +21694,10 @@
       <c r="H409" t="n">
         <v>287</v>
       </c>
-      <c r="I409" t="n">
-        <v>0.1</v>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
       </c>
       <c r="J409" t="n">
         <v>213163</v>
@@ -20930,8 +21746,10 @@
       <c r="H410" t="n">
         <v>389</v>
       </c>
-      <c r="I410" t="n">
-        <v>-2.86</v>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
       </c>
       <c r="J410" t="n">
         <v>366666</v>
@@ -20980,8 +21798,10 @@
       <c r="H411" t="n">
         <v>103</v>
       </c>
-      <c r="I411" t="n">
-        <v>-1.4</v>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-1.33%</t>
+        </is>
       </c>
       <c r="J411" t="n">
         <v>1856159</v>
@@ -21030,8 +21850,10 @@
       <c r="H412" t="n">
         <v>97</v>
       </c>
-      <c r="I412" t="n">
-        <v>-1.16</v>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
       </c>
       <c r="J412" t="n">
         <v>977629</v>
@@ -21080,8 +21902,10 @@
       <c r="H413" t="n">
         <v>43</v>
       </c>
-      <c r="I413" t="n">
-        <v>0.36</v>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
       </c>
       <c r="J413" t="n">
         <v>3993836</v>
@@ -21130,8 +21954,10 @@
       <c r="H414" t="n">
         <v>23</v>
       </c>
-      <c r="I414" t="n">
-        <v>0.03</v>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
       </c>
       <c r="J414" t="n">
         <v>2367411</v>
@@ -21180,8 +22006,10 @@
       <c r="H415" t="n">
         <v>107</v>
       </c>
-      <c r="I415" t="n">
-        <v>-0.31</v>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
       </c>
       <c r="J415" t="n">
         <v>509467</v>
@@ -21230,8 +22058,10 @@
       <c r="H416" t="n">
         <v>77</v>
       </c>
-      <c r="I416" t="n">
-        <v>-1.18</v>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
       </c>
       <c r="J416" t="n">
         <v>2080059</v>
@@ -21280,8 +22110,10 @@
       <c r="H417" t="n">
         <v>164</v>
       </c>
-      <c r="I417" t="n">
-        <v>-1.29</v>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
       </c>
       <c r="J417" t="n">
         <v>492596</v>
@@ -21330,8 +22162,10 @@
       <c r="H418" t="n">
         <v>209</v>
       </c>
-      <c r="I418" t="n">
-        <v>3.73</v>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
       </c>
       <c r="J418" t="n">
         <v>623269</v>
@@ -21380,8 +22214,10 @@
       <c r="H419" t="n">
         <v>254</v>
       </c>
-      <c r="I419" t="n">
-        <v>3.39</v>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
       </c>
       <c r="J419" t="n">
         <v>289197</v>
@@ -21430,8 +22266,10 @@
       <c r="H420" t="n">
         <v>29</v>
       </c>
-      <c r="I420" t="n">
-        <v>-0.2</v>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-0.68%</t>
+        </is>
       </c>
       <c r="J420" t="n">
         <v>3624311</v>
@@ -21480,8 +22318,10 @@
       <c r="H421" t="n">
         <v>24</v>
       </c>
-      <c r="I421" t="n">
-        <v>-0.43</v>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-1.72%</t>
+        </is>
       </c>
       <c r="J421" t="n">
         <v>10610078</v>
@@ -21530,8 +22370,10 @@
       <c r="H422" t="n">
         <v>29</v>
       </c>
-      <c r="I422" t="n">
-        <v>0.05</v>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
       </c>
       <c r="J422" t="n">
         <v>3592310</v>
@@ -21580,8 +22422,10 @@
       <c r="H423" t="n">
         <v>403</v>
       </c>
-      <c r="I423" t="n">
-        <v>0.19</v>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
       </c>
       <c r="J423" t="n">
         <v>551874</v>
@@ -21630,8 +22474,10 @@
       <c r="H424" t="n">
         <v>9</v>
       </c>
-      <c r="I424" t="n">
-        <v>0.01</v>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
       </c>
       <c r="J424" t="n">
         <v>6064945</v>
@@ -21680,8 +22526,10 @@
       <c r="H425" t="n">
         <v>42</v>
       </c>
-      <c r="I425" t="n">
-        <v>-0.86</v>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-1.99%</t>
+        </is>
       </c>
       <c r="J425" t="n">
         <v>8898926</v>
@@ -21730,8 +22578,10 @@
       <c r="H426" t="n">
         <v>27</v>
       </c>
-      <c r="I426" t="n">
-        <v>-0.16</v>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
+        </is>
       </c>
       <c r="J426" t="n">
         <v>1847614</v>
@@ -21780,8 +22630,10 @@
       <c r="H427" t="n">
         <v>29</v>
       </c>
-      <c r="I427" t="n">
-        <v>-0.31</v>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
       </c>
       <c r="J427" t="n">
         <v>3863559</v>
@@ -21830,8 +22682,10 @@
       <c r="H428" t="n">
         <v>19</v>
       </c>
-      <c r="I428" t="n">
-        <v>-0.01</v>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-0.05%</t>
+        </is>
       </c>
       <c r="J428" t="n">
         <v>9037485</v>
@@ -21880,8 +22734,10 @@
       <c r="H429" t="n">
         <v>266</v>
       </c>
-      <c r="I429" t="n">
-        <v>-4.37</v>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-1.61%</t>
+        </is>
       </c>
       <c r="J429" t="n">
         <v>484950</v>
@@ -21930,8 +22786,10 @@
       <c r="H430" t="n">
         <v>60</v>
       </c>
-      <c r="I430" t="n">
-        <v>-1.66</v>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
       </c>
       <c r="J430" t="n">
         <v>2227224</v>
@@ -21980,8 +22838,10 @@
       <c r="H431" t="n">
         <v>21</v>
       </c>
-      <c r="I431" t="n">
-        <v>-0.53</v>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-2.36%</t>
+        </is>
       </c>
       <c r="J431" t="n">
         <v>5731273</v>
@@ -22030,8 +22890,10 @@
       <c r="H432" t="n">
         <v>23</v>
       </c>
-      <c r="I432" t="n">
-        <v>-0.05</v>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
       </c>
       <c r="J432" t="n">
         <v>2219563</v>
@@ -22080,8 +22942,10 @@
       <c r="H433" t="n">
         <v>24</v>
       </c>
-      <c r="I433" t="n">
-        <v>-0.12</v>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
       </c>
       <c r="J433" t="n">
         <v>864321</v>
@@ -22130,8 +22994,10 @@
       <c r="H434" t="n">
         <v>37</v>
       </c>
-      <c r="I434" t="n">
-        <v>-0.02</v>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-0.05%</t>
+        </is>
       </c>
       <c r="J434" t="n">
         <v>3530835</v>
@@ -22180,8 +23046,10 @@
       <c r="H435" t="n">
         <v>61</v>
       </c>
-      <c r="I435" t="n">
-        <v>-0.2</v>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>-0.32%</t>
+        </is>
       </c>
       <c r="J435" t="n">
         <v>1766457</v>
@@ -22230,8 +23098,10 @@
       <c r="H436" t="n">
         <v>14</v>
       </c>
-      <c r="I436" t="n">
-        <v>-0.33</v>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
       </c>
       <c r="J436" t="n">
         <v>14252350</v>
@@ -22280,8 +23150,10 @@
       <c r="H437" t="n">
         <v>123</v>
       </c>
-      <c r="I437" t="n">
-        <v>0.31</v>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="J437" t="n">
         <v>1076282</v>
@@ -22330,8 +23202,10 @@
       <c r="H438" t="n">
         <v>43</v>
       </c>
-      <c r="I438" t="n">
-        <v>-0.2</v>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
       </c>
       <c r="J438" t="n">
         <v>2766778</v>
@@ -22380,8 +23254,10 @@
       <c r="H439" t="n">
         <v>50</v>
       </c>
-      <c r="I439" t="n">
-        <v>-0.09</v>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
       </c>
       <c r="J439" t="n">
         <v>1994973</v>
@@ -22430,8 +23306,10 @@
       <c r="H440" t="n">
         <v>51</v>
       </c>
-      <c r="I440" t="n">
-        <v>-0.2</v>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>-0.39%</t>
+        </is>
       </c>
       <c r="J440" t="n">
         <v>1789703</v>
@@ -22480,8 +23358,10 @@
       <c r="H441" t="n">
         <v>36</v>
       </c>
-      <c r="I441" t="n">
-        <v>-0.84</v>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
+        </is>
       </c>
       <c r="J441" t="n">
         <v>3016755</v>
@@ -22530,8 +23410,10 @@
       <c r="H442" t="n">
         <v>19</v>
       </c>
-      <c r="I442" t="n">
-        <v>-0.41</v>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>-2.11%</t>
+        </is>
       </c>
       <c r="J442" t="n">
         <v>4172919</v>
@@ -22580,8 +23462,10 @@
       <c r="H443" t="n">
         <v>47</v>
       </c>
-      <c r="I443" t="n">
-        <v>0.48</v>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
       </c>
       <c r="J443" t="n">
         <v>2319613</v>
@@ -22630,8 +23514,10 @@
       <c r="H444" t="n">
         <v>32</v>
       </c>
-      <c r="I444" t="n">
-        <v>-0.04</v>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
       </c>
       <c r="J444" t="n">
         <v>3313171</v>
@@ -22680,8 +23566,10 @@
       <c r="H445" t="n">
         <v>101</v>
       </c>
-      <c r="I445" t="n">
-        <v>-0.73</v>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>-0.72%</t>
+        </is>
       </c>
       <c r="J445" t="n">
         <v>861849</v>
@@ -22730,8 +23618,10 @@
       <c r="H446" t="n">
         <v>66</v>
       </c>
-      <c r="I446" t="n">
-        <v>-0.57</v>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
       </c>
       <c r="J446" t="n">
         <v>915996</v>
@@ -22780,8 +23670,10 @@
       <c r="H447" t="n">
         <v>10</v>
       </c>
-      <c r="I447" t="n">
-        <v>-0.2</v>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
+        </is>
       </c>
       <c r="J447" t="n">
         <v>9040628</v>
@@ -22830,8 +23722,10 @@
       <c r="H448" t="n">
         <v>166</v>
       </c>
-      <c r="I448" t="n">
-        <v>0.86</v>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
       </c>
       <c r="J448" t="n">
         <v>420249</v>
@@ -22880,8 +23774,10 @@
       <c r="H449" t="n">
         <v>37</v>
       </c>
-      <c r="I449" t="n">
-        <v>-0.48</v>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>-1.28%</t>
+        </is>
       </c>
       <c r="J449" t="n">
         <v>4145549</v>
@@ -22930,8 +23826,10 @@
       <c r="H450" t="n">
         <v>76</v>
       </c>
-      <c r="I450" t="n">
-        <v>-0.46</v>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
       </c>
       <c r="J450" t="n">
         <v>1139447</v>
@@ -22980,8 +23878,10 @@
       <c r="H451" t="n">
         <v>75</v>
       </c>
-      <c r="I451" t="n">
-        <v>0.43</v>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
       </c>
       <c r="J451" t="n">
         <v>2675555</v>
@@ -23030,8 +23930,10 @@
       <c r="H452" t="n">
         <v>253</v>
       </c>
-      <c r="I452" t="n">
-        <v>-4.61</v>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
+        </is>
       </c>
       <c r="J452" t="n">
         <v>275686</v>
@@ -23080,8 +23982,10 @@
       <c r="H453" t="n">
         <v>51</v>
       </c>
-      <c r="I453" t="n">
-        <v>-0.58</v>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
       </c>
       <c r="J453" t="n">
         <v>1971052</v>
@@ -23130,8 +24034,10 @@
       <c r="H454" t="n">
         <v>79</v>
       </c>
-      <c r="I454" t="n">
-        <v>0.05</v>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
       </c>
       <c r="J454" t="n">
         <v>847283</v>
@@ -23180,8 +24086,10 @@
       <c r="H455" t="n">
         <v>203</v>
       </c>
-      <c r="I455" t="n">
-        <v>0.03</v>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
       </c>
       <c r="J455" t="n">
         <v>665771</v>
@@ -23230,8 +24138,10 @@
       <c r="H456" t="n">
         <v>228</v>
       </c>
-      <c r="I456" t="n">
-        <v>-4.65</v>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
       </c>
       <c r="J456" t="n">
         <v>543338</v>
@@ -23280,8 +24190,10 @@
       <c r="H457" t="n">
         <v>70</v>
       </c>
-      <c r="I457" t="n">
-        <v>-0.62</v>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
       </c>
       <c r="J457" t="n">
         <v>1228940</v>
@@ -23330,8 +24242,10 @@
       <c r="H458" t="n">
         <v>123</v>
       </c>
-      <c r="I458" t="n">
-        <v>0.3</v>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
       </c>
       <c r="J458" t="n">
         <v>523054</v>
@@ -23380,8 +24294,10 @@
       <c r="H459" t="n">
         <v>49</v>
       </c>
-      <c r="I459" t="n">
-        <v>0.65</v>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>1.34%</t>
+        </is>
       </c>
       <c r="J459" t="n">
         <v>4191582</v>
@@ -23430,8 +24346,10 @@
       <c r="H460" t="n">
         <v>70</v>
       </c>
-      <c r="I460" t="n">
-        <v>-1.66</v>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-2.31%</t>
+        </is>
       </c>
       <c r="J460" t="n">
         <v>1084418</v>
@@ -23480,8 +24398,10 @@
       <c r="H461" t="n">
         <v>42</v>
       </c>
-      <c r="I461" t="n">
-        <v>-0.3</v>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
       </c>
       <c r="J461" t="n">
         <v>2509289</v>
@@ -23530,8 +24450,10 @@
       <c r="H462" t="n">
         <v>35</v>
       </c>
-      <c r="I462" t="n">
-        <v>-0.51</v>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-1.41%</t>
+        </is>
       </c>
       <c r="J462" t="n">
         <v>5881949</v>
@@ -23580,8 +24502,10 @@
       <c r="H463" t="n">
         <v>26</v>
       </c>
-      <c r="I463" t="n">
-        <v>-0.09</v>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-0.34%</t>
+        </is>
       </c>
       <c r="J463" t="n">
         <v>4110621</v>
@@ -23630,8 +24554,10 @@
       <c r="H464" t="n">
         <v>111</v>
       </c>
-      <c r="I464" t="n">
-        <v>-0.09</v>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
       </c>
       <c r="J464" t="n">
         <v>1262139</v>
@@ -23680,8 +24606,10 @@
       <c r="H465" t="n">
         <v>179</v>
       </c>
-      <c r="I465" t="n">
-        <v>1.66</v>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
       </c>
       <c r="J465" t="n">
         <v>354325</v>
@@ -23730,8 +24658,10 @@
       <c r="H466" t="n">
         <v>68</v>
       </c>
-      <c r="I466" t="n">
-        <v>0.12</v>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
       </c>
       <c r="J466" t="n">
         <v>1177172</v>
@@ -23780,8 +24710,10 @@
       <c r="H467" t="n">
         <v>281</v>
       </c>
-      <c r="I467" t="n">
-        <v>-2.6</v>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-0.91%</t>
+        </is>
       </c>
       <c r="J467" t="n">
         <v>271861</v>
@@ -23830,8 +24762,10 @@
       <c r="H468" t="n">
         <v>19</v>
       </c>
-      <c r="I468" t="n">
-        <v>-0.17</v>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-0.86%</t>
+        </is>
       </c>
       <c r="J468" t="n">
         <v>5796217</v>
@@ -23880,8 +24814,10 @@
       <c r="H469" t="n">
         <v>99</v>
       </c>
-      <c r="I469" t="n">
-        <v>-0.03</v>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
       </c>
       <c r="J469" t="n">
         <v>1172596</v>
@@ -23930,8 +24866,10 @@
       <c r="H470" t="n">
         <v>87</v>
       </c>
-      <c r="I470" t="n">
-        <v>-1.19</v>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-1.34%</t>
+        </is>
       </c>
       <c r="J470" t="n">
         <v>834453</v>
@@ -23980,8 +24918,10 @@
       <c r="H471" t="n">
         <v>117</v>
       </c>
-      <c r="I471" t="n">
-        <v>-0.35</v>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
       </c>
       <c r="J471" t="n">
         <v>725018</v>
@@ -24030,8 +24970,10 @@
       <c r="H472" t="n">
         <v>15</v>
       </c>
-      <c r="I472" t="n">
-        <v>-0.5600000000000001</v>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-3.48%</t>
+        </is>
       </c>
       <c r="J472" t="n">
         <v>13966247</v>
@@ -24080,8 +25022,10 @@
       <c r="H473" t="n">
         <v>149</v>
       </c>
-      <c r="I473" t="n">
-        <v>0.45</v>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
       </c>
       <c r="J473" t="n">
         <v>534073</v>
@@ -24130,8 +25074,10 @@
       <c r="H474" t="n">
         <v>47</v>
       </c>
-      <c r="I474" t="n">
-        <v>-0.78</v>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-1.62%</t>
+        </is>
       </c>
       <c r="J474" t="n">
         <v>2740230</v>
@@ -24180,8 +25126,10 @@
       <c r="H475" t="n">
         <v>255</v>
       </c>
-      <c r="I475" t="n">
-        <v>1.34</v>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
       </c>
       <c r="J475" t="n">
         <v>248757</v>
@@ -24230,8 +25178,10 @@
       <c r="H476" t="n">
         <v>84</v>
       </c>
-      <c r="I476" t="n">
-        <v>3.62</v>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
       </c>
       <c r="J476" t="n">
         <v>5800243</v>
@@ -24280,8 +25230,10 @@
       <c r="H477" t="n">
         <v>89</v>
       </c>
-      <c r="I477" t="n">
-        <v>0.11</v>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
       </c>
       <c r="J477" t="n">
         <v>1454488</v>
@@ -24330,8 +25282,10 @@
       <c r="H478" t="n">
         <v>84</v>
       </c>
-      <c r="I478" t="n">
-        <v>-1.11</v>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
       </c>
       <c r="J478" t="n">
         <v>1265850</v>
@@ -24380,8 +25334,10 @@
       <c r="H479" t="n">
         <v>106</v>
       </c>
-      <c r="I479" t="n">
-        <v>0.45</v>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
       </c>
       <c r="J479" t="n">
         <v>646617</v>
@@ -24430,8 +25386,10 @@
       <c r="H480" t="n">
         <v>73</v>
       </c>
-      <c r="I480" t="n">
-        <v>-1.03</v>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-1.38%</t>
+        </is>
       </c>
       <c r="J480" t="n">
         <v>1186064</v>
@@ -24480,8 +25438,10 @@
       <c r="H481" t="n">
         <v>41</v>
       </c>
-      <c r="I481" t="n">
-        <v>0.1</v>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
       </c>
       <c r="J481" t="n">
         <v>2847162</v>
@@ -24530,8 +25490,10 @@
       <c r="H482" t="n">
         <v>29</v>
       </c>
-      <c r="I482" t="n">
-        <v>0.07000000000000001</v>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
       </c>
       <c r="J482" t="n">
         <v>3431291</v>
@@ -24580,8 +25542,10 @@
       <c r="H483" t="n">
         <v>14</v>
       </c>
-      <c r="I483" t="n">
-        <v>-0.19</v>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-1.32%</t>
+        </is>
       </c>
       <c r="J483" t="n">
         <v>28382387</v>
@@ -24630,8 +25594,10 @@
       <c r="H484" t="n">
         <v>143</v>
       </c>
-      <c r="I484" t="n">
-        <v>2.73</v>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
       </c>
       <c r="J484" t="n">
         <v>914962</v>
@@ -24680,8 +25646,10 @@
       <c r="H485" t="n">
         <v>34</v>
       </c>
-      <c r="I485" t="n">
-        <v>0.07000000000000001</v>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
       </c>
       <c r="J485" t="n">
         <v>4961511</v>
@@ -24730,8 +25698,10 @@
       <c r="H486" t="n">
         <v>87</v>
       </c>
-      <c r="I486" t="n">
-        <v>-0.11</v>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
       </c>
       <c r="J486" t="n">
         <v>564524</v>
@@ -24780,8 +25750,10 @@
       <c r="H487" t="n">
         <v>307</v>
       </c>
-      <c r="I487" t="n">
-        <v>-1.54</v>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
       </c>
       <c r="J487" t="n">
         <v>278954</v>
@@ -24830,8 +25802,10 @@
       <c r="H488" t="n">
         <v>165</v>
       </c>
-      <c r="I488" t="n">
-        <v>1.32</v>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
       </c>
       <c r="J488" t="n">
         <v>355187</v>
@@ -24880,8 +25854,10 @@
       <c r="H489" t="n">
         <v>20</v>
       </c>
-      <c r="I489" t="n">
-        <v>0.01</v>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
       </c>
       <c r="J489" t="n">
         <v>12629511</v>
@@ -24930,8 +25906,10 @@
       <c r="H490" t="n">
         <v>104</v>
       </c>
-      <c r="I490" t="n">
-        <v>-1.21</v>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
       </c>
       <c r="J490" t="n">
         <v>359270</v>
@@ -24980,8 +25958,10 @@
       <c r="H491" t="n">
         <v>72</v>
       </c>
-      <c r="I491" t="n">
-        <v>-1.16</v>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
       </c>
       <c r="J491" t="n">
         <v>1094352</v>
@@ -25030,8 +26010,10 @@
       <c r="H492" t="n">
         <v>35</v>
       </c>
-      <c r="I492" t="n">
-        <v>-0.25</v>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-0.69%</t>
+        </is>
       </c>
       <c r="J492" t="n">
         <v>2922075</v>
@@ -25080,8 +26062,10 @@
       <c r="H493" t="n">
         <v>34</v>
       </c>
-      <c r="I493" t="n">
-        <v>-0.42</v>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
       </c>
       <c r="J493" t="n">
         <v>1931750</v>
@@ -25130,8 +26114,10 @@
       <c r="H494" t="n">
         <v>128</v>
       </c>
-      <c r="I494" t="n">
-        <v>0.59</v>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
       </c>
       <c r="J494" t="n">
         <v>738234</v>
@@ -25180,8 +26166,10 @@
       <c r="H495" t="n">
         <v>17</v>
       </c>
-      <c r="I495" t="n">
-        <v>-0.26</v>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
       </c>
       <c r="J495" t="n">
         <v>3490676</v>
@@ -25230,8 +26218,10 @@
       <c r="H496" t="n">
         <v>41</v>
       </c>
-      <c r="I496" t="n">
-        <v>0.28</v>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
       </c>
       <c r="J496" t="n">
         <v>1569990</v>
@@ -25280,8 +26270,10 @@
       <c r="H497" t="n">
         <v>58</v>
       </c>
-      <c r="I497" t="n">
-        <v>-0.89</v>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
       </c>
       <c r="J497" t="n">
         <v>1642810</v>
@@ -25330,8 +26322,10 @@
       <c r="H498" t="n">
         <v>34</v>
       </c>
-      <c r="I498" t="n">
-        <v>-0.32</v>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-0.93%</t>
+        </is>
       </c>
       <c r="J498" t="n">
         <v>1929481</v>
@@ -25380,8 +26374,10 @@
       <c r="H499" t="n">
         <v>51</v>
       </c>
-      <c r="I499" t="n">
-        <v>1.72</v>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
       </c>
       <c r="J499" t="n">
         <v>2304052</v>
@@ -25430,8 +26426,10 @@
       <c r="H500" t="n">
         <v>54</v>
       </c>
-      <c r="I500" t="n">
-        <v>-1.15</v>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-2.06%</t>
+        </is>
       </c>
       <c r="J500" t="n">
         <v>1580608</v>
@@ -25480,8 +26478,10 @@
       <c r="H501" t="n">
         <v>18</v>
       </c>
-      <c r="I501" t="n">
-        <v>-0.54</v>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-2.86%</t>
+        </is>
       </c>
       <c r="J501" t="n">
         <v>14318149</v>
@@ -25530,8 +26530,10 @@
       <c r="H502" t="n">
         <v>103</v>
       </c>
-      <c r="I502" t="n">
-        <v>-2.45</v>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-2.32%</t>
+        </is>
       </c>
       <c r="J502" t="n">
         <v>688661</v>
@@ -25580,8 +26582,10 @@
       <c r="H503" t="n">
         <v>117</v>
       </c>
-      <c r="I503" t="n">
-        <v>-1.18</v>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
       </c>
       <c r="J503" t="n">
         <v>627236</v>
@@ -25630,8 +26634,10 @@
       <c r="H504" t="n">
         <v>43</v>
       </c>
-      <c r="I504" t="n">
-        <v>-1.39</v>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-3.13%</t>
+        </is>
       </c>
       <c r="J504" t="n">
         <v>1837484</v>

--- a/Excel/SP500_excel.xlsx
+++ b/Excel/SP500_excel.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.51%</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>3.01%</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -688,7 +688,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.39%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>2.67%</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -792,7 +792,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>2.08%</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.67%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>2.41%</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-0.48%</t>
+          <t>-0.57%</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.98%</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-0.82%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.52%</t>
+          <t>2.56%</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>-0.67%</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>1.72%</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.06%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-0.48%</t>
+          <t>-0.58%</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-0.68%</t>
+          <t>-0.49%</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-2.17%</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-2.73%</t>
+          <t>-3.1%</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-0.98%</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-0.55%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.82%</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-0.36%</t>
+          <t>-0.35%</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-1.23%</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.49%</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>0.55%</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-0.94%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>-1.61%</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-2.56%</t>
+          <t>-2.82%</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-0.97%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-1.27%</t>
+          <t>-1.31%</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-1.41%</t>
+          <t>-1.49%</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>-0.37%</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>-1.97%</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.92%</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>1.22%</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-1.03%</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-1.05%</t>
+          <t>-1.04%</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>-0.77%</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-1.25%</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>-0.64%</t>
+          <t>-0.94%</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-2.14%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1.09%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-1.33%</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-0.35%</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-0.55%</t>
+          <t>-0.51%</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>-0.52%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-2.54%</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>-0.56%</t>
+          <t>-0.77%</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-0.74%</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>-1.89%</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.74%</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>-1.57%</t>
+          <t>-1.48%</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-0.82%</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.42%</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>-2.76%</t>
+          <t>-2.22%</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>0.45%</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-1.44%</t>
         </is>
       </c>
       <c r="J134" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2.37%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.64%</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-0.66%</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="J139" t="n">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>-0.53%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J141" t="n">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>-1.66%</t>
+          <t>-1.72%</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>-1.06%</t>
+          <t>-1.87%</t>
         </is>
       </c>
       <c r="J144" t="n">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>-0.37%</t>
         </is>
       </c>
       <c r="J146" t="n">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J147" t="n">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.67%</t>
         </is>
       </c>
       <c r="J148" t="n">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>-0.94%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="J150" t="n">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="J151" t="n">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="J152" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="J153" t="n">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J154" t="n">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="J155" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="J157" t="n">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>-1.13%</t>
+          <t>-1.38%</t>
         </is>
       </c>
       <c r="J158" t="n">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="J159" t="n">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>-0.43%</t>
         </is>
       </c>
       <c r="J160" t="n">
@@ -8800,7 +8800,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>-1.21%</t>
+          <t>-1.69%</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="J163" t="n">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-0.42%</t>
         </is>
       </c>
       <c r="J164" t="n">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="J165" t="n">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>-0.34%</t>
         </is>
       </c>
       <c r="J166" t="n">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>-0.42%</t>
+          <t>-1.04%</t>
         </is>
       </c>
       <c r="J167" t="n">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>-2.52%</t>
+          <t>-2.17%</t>
         </is>
       </c>
       <c r="J168" t="n">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>-0.95%</t>
+          <t>-1.33%</t>
         </is>
       </c>
       <c r="J169" t="n">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>-0.77%</t>
         </is>
       </c>
       <c r="J170" t="n">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>-1.09%</t>
         </is>
       </c>
       <c r="J171" t="n">
@@ -9372,7 +9372,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>1.34%</t>
         </is>
       </c>
       <c r="J172" t="n">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J173" t="n">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-0.95%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J174" t="n">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>-1.01%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J175" t="n">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>-2.22%</t>
+          <t>-1.52%</t>
         </is>
       </c>
       <c r="J176" t="n">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J177" t="n">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>-1.18%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="J178" t="n">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>1.25%</t>
         </is>
       </c>
       <c r="J179" t="n">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J180" t="n">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.65%</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>-0.98%</t>
+          <t>-1.33%</t>
         </is>
       </c>
       <c r="J182" t="n">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-2.04%</t>
         </is>
       </c>
       <c r="J183" t="n">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J184" t="n">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J185" t="n">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="J186" t="n">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.04%</t>
         </is>
       </c>
       <c r="J187" t="n">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J188" t="n">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>-2.56%</t>
+          <t>-2.63%</t>
         </is>
       </c>
       <c r="J189" t="n">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J190" t="n">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J191" t="n">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>-0.37%</t>
         </is>
       </c>
       <c r="J193" t="n">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>-0.97%</t>
+          <t>-1.36%</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>-1.42%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J195" t="n">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="J196" t="n">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="J197" t="n">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>-2.77%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="J198" t="n">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>-0.62%</t>
+          <t>-1.22%</t>
         </is>
       </c>
       <c r="J199" t="n">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-1.01%</t>
         </is>
       </c>
       <c r="J200" t="n">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>-0.57%</t>
         </is>
       </c>
       <c r="J201" t="n">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>-0.94%</t>
+          <t>-2.86%</t>
         </is>
       </c>
       <c r="J202" t="n">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="J203" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J204" t="n">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>-1.34%</t>
         </is>
       </c>
       <c r="J205" t="n">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="J206" t="n">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="J207" t="n">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>-1.55%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="J209" t="n">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="J210" t="n">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J211" t="n">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J212" t="n">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="J213" t="n">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J214" t="n">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J215" t="n">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="J216" t="n">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J217" t="n">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>-1.92%</t>
         </is>
       </c>
       <c r="J218" t="n">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>-1.01%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J219" t="n">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>-4.06%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="J220" t="n">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1.56%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="J221" t="n">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>-1.54%</t>
+          <t>-1.56%</t>
         </is>
       </c>
       <c r="J222" t="n">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J223" t="n">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.27%</t>
         </is>
       </c>
       <c r="J224" t="n">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>-0.46%</t>
+          <t>-1.32%</t>
         </is>
       </c>
       <c r="J225" t="n">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J226" t="n">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J228" t="n">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>-0.96%</t>
         </is>
       </c>
       <c r="J229" t="n">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>-1.08%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="J230" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J231" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>-1.51%</t>
+          <t>-1.37%</t>
         </is>
       </c>
       <c r="J232" t="n">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>-0.74%</t>
+          <t>-1.11%</t>
         </is>
       </c>
       <c r="J233" t="n">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="J234" t="n">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J235" t="n">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="J236" t="n">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="J237" t="n">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>-1.46%</t>
+          <t>-2.35%</t>
         </is>
       </c>
       <c r="J238" t="n">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J239" t="n">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J240" t="n">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="J241" t="n">
@@ -13012,7 +13012,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="J242" t="n">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J243" t="n">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="J244" t="n">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>-0.82%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J245" t="n">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="J246" t="n">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="J247" t="n">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J248" t="n">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>-2.66%</t>
+          <t>-2.86%</t>
         </is>
       </c>
       <c r="J249" t="n">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J250" t="n">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="J251" t="n">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>-0.77%</t>
+          <t>-0.78%</t>
         </is>
       </c>
       <c r="J252" t="n">
@@ -13584,7 +13584,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>-0.66%</t>
         </is>
       </c>
       <c r="J253" t="n">
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2.61%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="J254" t="n">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>-0.52%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J255" t="n">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>-1.23%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J256" t="n">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J257" t="n">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J258" t="n">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J259" t="n">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J260" t="n">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J261" t="n">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>-0.82%</t>
         </is>
       </c>
       <c r="J262" t="n">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J263" t="n">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J264" t="n">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="J265" t="n">
@@ -14260,7 +14260,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J266" t="n">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="J267" t="n">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-1.33%</t>
         </is>
       </c>
       <c r="J268" t="n">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>-0.58%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="J269" t="n">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J270" t="n">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="J271" t="n">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>-2.84%</t>
+          <t>-8.33%</t>
         </is>
       </c>
       <c r="J272" t="n">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J273" t="n">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.76%</t>
         </is>
       </c>
       <c r="J274" t="n">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="J275" t="n">
@@ -14780,7 +14780,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="J276" t="n">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J277" t="n">
@@ -14884,7 +14884,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>-0.32%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>-0.57%</t>
+          <t>-0.64%</t>
         </is>
       </c>
       <c r="J279" t="n">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J280" t="n">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>-3.39%</t>
+          <t>-3.08%</t>
         </is>
       </c>
       <c r="J281" t="n">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>-1.23%</t>
+          <t>-1.25%</t>
         </is>
       </c>
       <c r="J282" t="n">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="J283" t="n">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-1.43%</t>
         </is>
       </c>
       <c r="J284" t="n">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J285" t="n">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J286" t="n">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="J287" t="n">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>-1.95%</t>
+          <t>-2.38%</t>
         </is>
       </c>
       <c r="J288" t="n">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>-1.18%</t>
+          <t>-1.11%</t>
         </is>
       </c>
       <c r="J289" t="n">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J290" t="n">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="J291" t="n">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J293" t="n">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>-0.76%</t>
         </is>
       </c>
       <c r="J294" t="n">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J295" t="n">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J296" t="n">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J297" t="n">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J298" t="n">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>-0.96%</t>
+          <t>-1.14%</t>
         </is>
       </c>
       <c r="J299" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J300" t="n">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J302" t="n">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="J303" t="n">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J304" t="n">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J305" t="n">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J306" t="n">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>-1.04%</t>
+          <t>-1.28%</t>
         </is>
       </c>
       <c r="J307" t="n">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.41%</t>
         </is>
       </c>
       <c r="J308" t="n">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J309" t="n">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>-0.96%</t>
+          <t>-0.92%</t>
         </is>
       </c>
       <c r="J310" t="n">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="J311" t="n">
@@ -16652,7 +16652,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="J312" t="n">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J313" t="n">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-3.52%</t>
         </is>
       </c>
       <c r="J314" t="n">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>-0.91%</t>
         </is>
       </c>
       <c r="J315" t="n">
@@ -16860,7 +16860,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-1.53%</t>
         </is>
       </c>
       <c r="J316" t="n">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="J317" t="n">
@@ -16964,7 +16964,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J318" t="n">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J319" t="n">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>1.92%</t>
         </is>
       </c>
       <c r="J320" t="n">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="J321" t="n">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J322" t="n">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J323" t="n">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="J324" t="n">
@@ -17328,7 +17328,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>1.09%</t>
         </is>
       </c>
       <c r="J325" t="n">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J326" t="n">
@@ -17432,7 +17432,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="J327" t="n">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="J328" t="n">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>-0.62%</t>
+          <t>-0.66%</t>
         </is>
       </c>
       <c r="J329" t="n">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="J330" t="n">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J331" t="n">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>-1.03%</t>
+          <t>-0.96%</t>
         </is>
       </c>
       <c r="J332" t="n">
@@ -17744,7 +17744,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J333" t="n">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="J334" t="n">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>-2.23%</t>
+          <t>-2.27%</t>
         </is>
       </c>
       <c r="J335" t="n">
@@ -17900,7 +17900,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J336" t="n">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>-2.34%</t>
+          <t>-2.46%</t>
         </is>
       </c>
       <c r="J337" t="n">
@@ -18004,7 +18004,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="J338" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>-1.24%</t>
+          <t>-1.25%</t>
         </is>
       </c>
       <c r="J339" t="n">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>2.46%</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="J340" t="n">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="J341" t="n">
@@ -18212,7 +18212,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-0.36%</t>
         </is>
       </c>
       <c r="J342" t="n">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>2.82%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="J343" t="n">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J344" t="n">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>2.08%</t>
+          <t>1.27%</t>
         </is>
       </c>
       <c r="J345" t="n">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>-0.97%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J346" t="n">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J347" t="n">
@@ -18524,7 +18524,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>-4.96%</t>
+          <t>-4.69%</t>
         </is>
       </c>
       <c r="J348" t="n">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="J350" t="n">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>-1.34%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J351" t="n">
@@ -18732,7 +18732,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>-1.12%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J352" t="n">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>-1.25%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="J353" t="n">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="J354" t="n">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="J355" t="n">
@@ -18940,7 +18940,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>-1.21%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="J356" t="n">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="J357" t="n">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>-1.28%</t>
         </is>
       </c>
       <c r="J358" t="n">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="J359" t="n">
@@ -19148,7 +19148,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>-0.19%</t>
+          <t>-1.85%</t>
         </is>
       </c>
       <c r="J360" t="n">
@@ -19200,7 +19200,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-0.57%</t>
         </is>
       </c>
       <c r="J361" t="n">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="J362" t="n">
@@ -19304,7 +19304,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>-2.31%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J363" t="n">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J364" t="n">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J365" t="n">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J366" t="n">
@@ -19512,7 +19512,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J367" t="n">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>-1.72%</t>
         </is>
       </c>
       <c r="J368" t="n">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.55%</t>
         </is>
       </c>
       <c r="J369" t="n">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J370" t="n">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="J371" t="n">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>-2.84%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J372" t="n">
@@ -19824,7 +19824,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="J373" t="n">
@@ -19876,7 +19876,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>-0.26%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J374" t="n">
@@ -19928,7 +19928,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J375" t="n">
@@ -19980,7 +19980,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="J376" t="n">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>-0.42%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="J377" t="n">
@@ -20084,7 +20084,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J378" t="n">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="J379" t="n">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>2.23%</t>
+          <t>2.39%</t>
         </is>
       </c>
       <c r="J380" t="n">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J381" t="n">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J382" t="n">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>-1.36%</t>
         </is>
       </c>
       <c r="J383" t="n">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J384" t="n">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J385" t="n">
@@ -20500,7 +20500,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J386" t="n">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J387" t="n">
@@ -20604,7 +20604,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>2.23%</t>
+          <t>2.48%</t>
         </is>
       </c>
       <c r="J388" t="n">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>-3.07%</t>
+          <t>-2.99%</t>
         </is>
       </c>
       <c r="J389" t="n">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>-0.23%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J390" t="n">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J391" t="n">
@@ -20812,7 +20812,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-1.96%</t>
         </is>
       </c>
       <c r="J392" t="n">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="J393" t="n">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J394" t="n">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J395" t="n">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J396" t="n">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="J397" t="n">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>-0.82%</t>
+          <t>-2.56%</t>
         </is>
       </c>
       <c r="J398" t="n">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>-0.98%</t>
         </is>
       </c>
       <c r="J399" t="n">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>-0.79%</t>
         </is>
       </c>
       <c r="J400" t="n">
@@ -21280,7 +21280,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>0.83%</t>
         </is>
       </c>
       <c r="J401" t="n">
@@ -21332,7 +21332,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J402" t="n">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>2.88%</t>
         </is>
       </c>
       <c r="J403" t="n">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>-0.42%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J404" t="n">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>-2.94%</t>
+          <t>-3.03%</t>
         </is>
       </c>
       <c r="J405" t="n">
@@ -21540,7 +21540,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J406" t="n">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J407" t="n">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>-1.58%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="J408" t="n">
@@ -21696,7 +21696,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J409" t="n">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>-0.77%</t>
         </is>
       </c>
       <c r="J410" t="n">
@@ -21800,7 +21800,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>-1.33%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="J411" t="n">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>-1.18%</t>
+          <t>-1.02%</t>
         </is>
       </c>
       <c r="J412" t="n">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J413" t="n">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J414" t="n">
@@ -22008,7 +22008,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-0.93%</t>
         </is>
       </c>
       <c r="J415" t="n">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>-1.51%</t>
+          <t>-1.28%</t>
         </is>
       </c>
       <c r="J416" t="n">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-0.61%</t>
         </is>
       </c>
       <c r="J417" t="n">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>1.81%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="J418" t="n">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="J419" t="n">
@@ -22268,7 +22268,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>-0.68%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J420" t="n">
@@ -22320,7 +22320,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="J421" t="n">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J422" t="n">
@@ -22424,7 +22424,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="J423" t="n">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J424" t="n">
@@ -22528,7 +22528,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>-1.99%</t>
+          <t>-2.33%</t>
         </is>
       </c>
       <c r="J425" t="n">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>-0.58%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J426" t="n">
@@ -22632,7 +22632,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>-1.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J427" t="n">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J428" t="n">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>-1.61%</t>
+          <t>-1.85%</t>
         </is>
       </c>
       <c r="J429" t="n">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>-2.67%</t>
+          <t>-3.23%</t>
         </is>
       </c>
       <c r="J430" t="n">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>-2.36%</t>
+          <t>-4.55%</t>
         </is>
       </c>
       <c r="J431" t="n">
@@ -22892,7 +22892,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J432" t="n">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J433" t="n">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J434" t="n">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>-0.32%</t>
+          <t>-1.61%</t>
         </is>
       </c>
       <c r="J435" t="n">
@@ -23100,7 +23100,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>-2.29%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J436" t="n">
@@ -23152,7 +23152,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J437" t="n">
@@ -23204,7 +23204,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J438" t="n">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J439" t="n">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J440" t="n">
@@ -23360,7 +23360,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>-2.23%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="J441" t="n">
@@ -23412,7 +23412,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>-2.11%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J442" t="n">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="J443" t="n">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J444" t="n">
@@ -23568,7 +23568,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.98%</t>
         </is>
       </c>
       <c r="J445" t="n">
@@ -23620,7 +23620,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>-1.49%</t>
         </is>
       </c>
       <c r="J446" t="n">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>-1.94%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J447" t="n">
@@ -23724,7 +23724,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="J448" t="n">
@@ -23776,7 +23776,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>-1.28%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J449" t="n">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J450" t="n">
@@ -23880,7 +23880,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="J451" t="n">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>-1.56%</t>
         </is>
       </c>
       <c r="J452" t="n">
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-1.92%</t>
         </is>
       </c>
       <c r="J453" t="n">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J454" t="n">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J455" t="n">
@@ -24140,7 +24140,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>-1.72%</t>
         </is>
       </c>
       <c r="J456" t="n">
@@ -24192,7 +24192,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>-0.88%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J457" t="n">
@@ -24244,7 +24244,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="J458" t="n">
@@ -24296,7 +24296,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>2.08%</t>
         </is>
       </c>
       <c r="J459" t="n">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>-2.31%</t>
+          <t>-1.41%</t>
         </is>
       </c>
       <c r="J460" t="n">
@@ -24400,7 +24400,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.33%</t>
         </is>
       </c>
       <c r="J461" t="n">
@@ -24452,7 +24452,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>-1.41%</t>
+          <t>-2.78%</t>
         </is>
       </c>
       <c r="J462" t="n">
@@ -24504,7 +24504,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J463" t="n">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="J464" t="n">
@@ -24608,7 +24608,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="J465" t="n">
@@ -24660,7 +24660,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J466" t="n">
@@ -24712,7 +24712,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>-1.06%</t>
         </is>
       </c>
       <c r="J467" t="n">
@@ -24764,7 +24764,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>-0.86%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J468" t="n">
@@ -24816,7 +24816,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J469" t="n">
@@ -24868,7 +24868,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>-1.34%</t>
+          <t>-2.25%</t>
         </is>
       </c>
       <c r="J470" t="n">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="J471" t="n">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>-3.48%</t>
+          <t>-6.25%</t>
         </is>
       </c>
       <c r="J472" t="n">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J473" t="n">
@@ -25076,7 +25076,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>-1.62%</t>
+          <t>-2.08%</t>
         </is>
       </c>
       <c r="J474" t="n">
@@ -25128,7 +25128,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="J475" t="n">
@@ -25180,7 +25180,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>4.48%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="J476" t="n">
@@ -25232,7 +25232,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J477" t="n">
@@ -25284,7 +25284,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-1.18%</t>
         </is>
       </c>
       <c r="J478" t="n">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J479" t="n">
@@ -25388,7 +25388,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>-1.38%</t>
+          <t>-1.35%</t>
         </is>
       </c>
       <c r="J480" t="n">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J481" t="n">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J482" t="n">
@@ -25544,7 +25544,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>-1.32%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J483" t="n">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>2.14%</t>
         </is>
       </c>
       <c r="J484" t="n">
@@ -25648,7 +25648,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>3.03%</t>
         </is>
       </c>
       <c r="J485" t="n">
@@ -25700,7 +25700,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J486" t="n">
@@ -25752,7 +25752,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.65%</t>
         </is>
       </c>
       <c r="J487" t="n">
@@ -25804,7 +25804,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="J488" t="n">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J489" t="n">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>-0.95%</t>
         </is>
       </c>
       <c r="J490" t="n">
@@ -25960,7 +25960,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>-1.57%</t>
+          <t>-1.37%</t>
         </is>
       </c>
       <c r="J491" t="n">
@@ -26012,7 +26012,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-2.78%</t>
         </is>
       </c>
       <c r="J492" t="n">
@@ -26064,7 +26064,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>-2.86%</t>
         </is>
       </c>
       <c r="J493" t="n">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J494" t="n">
@@ -26168,7 +26168,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J495" t="n">
@@ -26220,7 +26220,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J496" t="n">
@@ -26272,7 +26272,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>-1.69%</t>
         </is>
       </c>
       <c r="J497" t="n">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>-0.93%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J498" t="n">
@@ -26376,7 +26376,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>3.42%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="J499" t="n">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>-2.06%</t>
+          <t>-1.82%</t>
         </is>
       </c>
       <c r="J500" t="n">
@@ -26480,7 +26480,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>-2.86%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="J501" t="n">
@@ -26532,7 +26532,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>-2.32%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="J502" t="n">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>-0.99%</t>
+          <t>-1.68%</t>
         </is>
       </c>
       <c r="J503" t="n">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>-3.13%</t>
+          <t>-2.27%</t>
         </is>
       </c>
       <c r="J504" t="n">
